--- a/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_FIXA - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_FIXA - ATUALIZADO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="873"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="873" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho do Mapa P1" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento P1 " sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
     <sheet name="Desenho do Mapa P2" sheetId="19" r:id="rId5"/>
     <sheet name="Mapeamento P2" sheetId="18" r:id="rId6"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1172,8 +1172,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2012,6 +2012,69 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2021,107 +2084,89 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2131,51 +2176,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2199,7 +2199,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2229,7 +2229,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2296,7 +2296,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2344,7 +2344,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2367,14 +2367,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2417,7 +2417,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2440,14 +2440,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2461,6 +2461,98 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18433" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18433"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19457" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s19457"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2550,6 +2642,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2584,6 +2677,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2759,15 +2853,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2776,13 +2870,13 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="113" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="113"/>
-    </row>
-    <row r="3" spans="2:10" ht="15">
+      <c r="D2" s="108"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>139</v>
       </c>
@@ -2790,22 +2884,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2816,143 +2910,135 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
-      <c r="B9" s="117" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123" t="s">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="112"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2963,6 +3049,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2972,7 +3066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2980,7 +3074,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="16" customWidth="1"/>
@@ -2989,7 +3083,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>154</v>
       </c>
@@ -2998,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>141</v>
       </c>
@@ -3007,7 +3101,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -3018,116 +3112,116 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
-      <c r="B6" s="132" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="82" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="82" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="82" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="82" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="82" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="82" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-    </row>
-    <row r="14" spans="2:10" ht="13.5" thickBot="1">
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+    </row>
+    <row r="14" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3138,20 +3232,20 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="133" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-    </row>
-    <row r="16" spans="2:10" ht="23.25" customHeight="1">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+    </row>
+    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
         <v>61</v>
       </c>
@@ -3172,7 +3266,7 @@
       <c r="I16" s="141"/>
       <c r="J16" s="142"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>156</v>
       </c>
@@ -3180,27 +3274,27 @@
       <c r="D17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="143"/>
       <c r="H17" s="143"/>
       <c r="I17" s="143"/>
       <c r="J17" s="143"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="137"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="143"/>
       <c r="H18" s="143"/>
       <c r="I18" s="143"/>
       <c r="J18" s="143"/>
     </row>
-    <row r="19" spans="2:10" ht="13.5" thickBot="1">
+    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3211,14 +3305,14 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B20" s="133" t="s">
+    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
         <v>62</v>
       </c>
@@ -3229,7 +3323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="25.5">
+    <row r="22" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="80" t="s">
         <v>134</v>
       </c>
@@ -3238,14 +3332,14 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="80" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3256,20 +3350,20 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="132" t="s">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>67</v>
       </c>
@@ -3279,52 +3373,61 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135" t="s">
+      <c r="F26" s="133"/>
+      <c r="G26" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3341,15 +3444,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3360,17 +3454,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3378,28 +3472,53 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="18433" r:id="rId3"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="18433" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="18433" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H39" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3431,52 +3550,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D1" s="79"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="150" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="157" t="s">
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3560,7 +3679,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="68" t="s">
         <v>120</v>
       </c>
@@ -3622,7 +3741,7 @@
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="24">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B5" s="68" t="s">
         <v>120</v>
       </c>
@@ -3684,7 +3803,7 @@
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="68" t="s">
         <v>120</v>
       </c>
@@ -3746,7 +3865,7 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
         <v>120</v>
       </c>
@@ -3804,7 +3923,7 @@
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="68" t="s">
         <v>120</v>
       </c>
@@ -3862,7 +3981,7 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
         <v>120</v>
       </c>
@@ -3924,7 +4043,7 @@
       <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="68" t="s">
         <v>120</v>
       </c>
@@ -3986,7 +4105,7 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B11" s="68" t="s">
         <v>120</v>
       </c>
@@ -4048,7 +4167,7 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
       <c r="D12" s="84"/>
@@ -4100,7 +4219,7 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="68" t="s">
         <v>120</v>
       </c>
@@ -4166,7 +4285,7 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
       <c r="D14" s="84"/>
@@ -4222,7 +4341,7 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
       <c r="D15" s="84"/>
@@ -4266,7 +4385,7 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1">
+    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="68" t="s">
         <v>120</v>
       </c>
@@ -4328,7 +4447,7 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1">
+    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="68" t="s">
         <v>120</v>
       </c>
@@ -4390,7 +4509,7 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1">
+    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68" t="s">
         <v>120</v>
       </c>
@@ -4452,7 +4571,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" ht="24">
+    <row r="19" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="68" t="s">
         <v>120</v>
       </c>
@@ -4514,7 +4633,7 @@
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="68" t="s">
         <v>120</v>
       </c>
@@ -4576,7 +4695,7 @@
       <c r="AB20" s="68"/>
       <c r="AC20" s="68"/>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="68" t="s">
         <v>120</v>
       </c>
@@ -4638,7 +4757,7 @@
       <c r="AB21" s="68"/>
       <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="68" t="s">
         <v>120</v>
       </c>
@@ -4700,7 +4819,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="2:29" ht="24">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="68" t="s">
         <v>120</v>
       </c>
@@ -4762,7 +4881,7 @@
       <c r="AB23" s="68"/>
       <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="2:29" ht="24">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="68" t="s">
         <v>120</v>
       </c>
@@ -4824,7 +4943,7 @@
       <c r="AB24" s="68"/>
       <c r="AC24" s="68"/>
     </row>
-    <row r="25" spans="2:29" ht="24">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="68" t="s">
         <v>120</v>
       </c>
@@ -4886,7 +5005,7 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="68" t="s">
         <v>120</v>
       </c>
@@ -4948,7 +5067,7 @@
       <c r="AB26" s="68"/>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="68" t="s">
         <v>120</v>
       </c>
@@ -5010,7 +5129,7 @@
       <c r="AB27" s="68"/>
       <c r="AC27" s="68"/>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="68" t="s">
         <v>120</v>
       </c>
@@ -5072,7 +5191,7 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="68"/>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="68" t="s">
         <v>120</v>
       </c>
@@ -5134,7 +5253,7 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="68" t="s">
         <v>120</v>
       </c>
@@ -5196,7 +5315,7 @@
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="68" t="s">
         <v>120</v>
       </c>
@@ -5262,7 +5381,7 @@
       <c r="AB31" s="68"/>
       <c r="AC31" s="68"/>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="68" t="s">
         <v>120</v>
       </c>
@@ -5324,7 +5443,7 @@
       <c r="AB32" s="68"/>
       <c r="AC32" s="68"/>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="68" t="s">
         <v>120</v>
       </c>
@@ -5386,7 +5505,7 @@
       <c r="AB33" s="68"/>
       <c r="AC33" s="68"/>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="68" t="s">
         <v>120</v>
       </c>
@@ -5448,7 +5567,7 @@
       <c r="AB34" s="68"/>
       <c r="AC34" s="68"/>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="68" t="s">
         <v>120</v>
       </c>
@@ -5510,7 +5629,7 @@
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="68" t="s">
         <v>120</v>
       </c>
@@ -5572,7 +5691,7 @@
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="2:29">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="86"/>
       <c r="C37" s="86"/>
       <c r="D37" s="84"/>
@@ -5624,7 +5743,7 @@
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="2:29" ht="24">
+    <row r="38" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>120</v>
       </c>
@@ -5690,7 +5809,7 @@
       <c r="AB38" s="93"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="2:29">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="68" t="s">
         <v>120</v>
       </c>
@@ -5721,36 +5840,36 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="147" t="s">
+      <c r="N39" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="O39" s="154"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="147" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="S39" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="T39" s="147" t="s">
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="S39" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="T39" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="147" t="s">
+      <c r="U39" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="V39" s="147"/>
-      <c r="W39" s="147"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="147"/>
-      <c r="Z39" s="147"/>
-      <c r="AA39" s="147"/>
-      <c r="AB39" s="147"/>
-      <c r="AC39" s="147"/>
-    </row>
-    <row r="40" spans="2:29">
+      <c r="V39" s="145"/>
+      <c r="W39" s="145"/>
+      <c r="X39" s="145"/>
+      <c r="Y39" s="145"/>
+      <c r="Z39" s="145"/>
+      <c r="AA39" s="145"/>
+      <c r="AB39" s="145"/>
+      <c r="AC39" s="145"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
         <v>120</v>
       </c>
@@ -5777,24 +5896,24 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="159"/>
-      <c r="O40" s="155"/>
-      <c r="P40" s="155"/>
-      <c r="Q40" s="148"/>
-      <c r="R40" s="148"/>
-      <c r="S40" s="148"/>
-      <c r="T40" s="148"/>
-      <c r="U40" s="148"/>
-      <c r="V40" s="148"/>
-      <c r="W40" s="148"/>
-      <c r="X40" s="148"/>
-      <c r="Y40" s="148"/>
-      <c r="Z40" s="148"/>
-      <c r="AA40" s="148"/>
-      <c r="AB40" s="148"/>
-      <c r="AC40" s="148"/>
-    </row>
-    <row r="41" spans="2:29" ht="33.75" customHeight="1">
+      <c r="N40" s="148"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="151"/>
+      <c r="Q40" s="146"/>
+      <c r="R40" s="146"/>
+      <c r="S40" s="146"/>
+      <c r="T40" s="146"/>
+      <c r="U40" s="146"/>
+      <c r="V40" s="146"/>
+      <c r="W40" s="146"/>
+      <c r="X40" s="146"/>
+      <c r="Y40" s="146"/>
+      <c r="Z40" s="146"/>
+      <c r="AA40" s="146"/>
+      <c r="AB40" s="146"/>
+      <c r="AC40" s="146"/>
+    </row>
+    <row r="41" spans="2:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
         <v>120</v>
       </c>
@@ -5821,24 +5940,24 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="160"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="149"/>
-      <c r="R41" s="149"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="149"/>
-      <c r="U41" s="149"/>
-      <c r="V41" s="149"/>
-      <c r="W41" s="149"/>
-      <c r="X41" s="149"/>
-      <c r="Y41" s="149"/>
-      <c r="Z41" s="149"/>
-      <c r="AA41" s="149"/>
-      <c r="AB41" s="149"/>
-      <c r="AC41" s="149"/>
-    </row>
-    <row r="42" spans="2:29" ht="24">
+      <c r="N41" s="149"/>
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="147"/>
+      <c r="R41" s="147"/>
+      <c r="S41" s="147"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="147"/>
+      <c r="V41" s="147"/>
+      <c r="W41" s="147"/>
+      <c r="X41" s="147"/>
+      <c r="Y41" s="147"/>
+      <c r="Z41" s="147"/>
+      <c r="AA41" s="147"/>
+      <c r="AB41" s="147"/>
+      <c r="AC41" s="147"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="83"/>
       <c r="C42" s="83"/>
       <c r="D42" s="88"/>
@@ -5882,7 +6001,7 @@
       <c r="AB42" s="68"/>
       <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="68" t="s">
         <v>120</v>
       </c>
@@ -5911,42 +6030,42 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="147" t="s">
+      <c r="N43" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="147" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="S43" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="T43" s="147" t="s">
+      <c r="O43" s="150"/>
+      <c r="P43" s="150"/>
+      <c r="Q43" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="S43" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="T43" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="147" t="s">
+      <c r="U43" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="147"/>
-      <c r="Z43" s="147"/>
-      <c r="AA43" s="147"/>
-      <c r="AB43" s="147"/>
-      <c r="AC43" s="147"/>
-    </row>
-    <row r="44" spans="2:29" ht="24">
+      <c r="V43" s="145"/>
+      <c r="W43" s="145"/>
+      <c r="X43" s="145"/>
+      <c r="Y43" s="145"/>
+      <c r="Z43" s="145"/>
+      <c r="AA43" s="145"/>
+      <c r="AB43" s="145"/>
+      <c r="AC43" s="145"/>
+    </row>
+    <row r="44" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B44" s="83"/>
       <c r="C44" s="83"/>
       <c r="D44" s="83"/>
       <c r="E44" s="87"/>
       <c r="F44" s="87"/>
-      <c r="G44" s="161" t="s">
+      <c r="G44" s="107" t="s">
         <v>158</v>
       </c>
       <c r="H44" s="68"/>
@@ -5955,24 +6074,24 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="148"/>
-      <c r="O44" s="155"/>
-      <c r="P44" s="155"/>
-      <c r="Q44" s="148"/>
-      <c r="R44" s="148"/>
-      <c r="S44" s="148"/>
-      <c r="T44" s="148"/>
-      <c r="U44" s="148"/>
-      <c r="V44" s="148"/>
-      <c r="W44" s="148"/>
-      <c r="X44" s="148"/>
-      <c r="Y44" s="148"/>
-      <c r="Z44" s="148"/>
-      <c r="AA44" s="148"/>
-      <c r="AB44" s="148"/>
-      <c r="AC44" s="148"/>
-    </row>
-    <row r="45" spans="2:29" ht="24">
+      <c r="N44" s="146"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="146"/>
+      <c r="R44" s="146"/>
+      <c r="S44" s="146"/>
+      <c r="T44" s="146"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="146"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="146"/>
+      <c r="Y44" s="146"/>
+      <c r="Z44" s="146"/>
+      <c r="AA44" s="146"/>
+      <c r="AB44" s="146"/>
+      <c r="AC44" s="146"/>
+    </row>
+    <row r="45" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
       <c r="D45" s="83"/>
@@ -5987,24 +6106,24 @@
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="155"/>
-      <c r="P45" s="155"/>
-      <c r="Q45" s="148"/>
-      <c r="R45" s="148"/>
-      <c r="S45" s="148"/>
-      <c r="T45" s="148"/>
-      <c r="U45" s="148"/>
-      <c r="V45" s="148"/>
-      <c r="W45" s="148"/>
-      <c r="X45" s="148"/>
-      <c r="Y45" s="148"/>
-      <c r="Z45" s="148"/>
-      <c r="AA45" s="148"/>
-      <c r="AB45" s="148"/>
-      <c r="AC45" s="148"/>
-    </row>
-    <row r="46" spans="2:29">
+      <c r="N45" s="146"/>
+      <c r="O45" s="151"/>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="146"/>
+      <c r="R45" s="146"/>
+      <c r="S45" s="146"/>
+      <c r="T45" s="146"/>
+      <c r="U45" s="146"/>
+      <c r="V45" s="146"/>
+      <c r="W45" s="146"/>
+      <c r="X45" s="146"/>
+      <c r="Y45" s="146"/>
+      <c r="Z45" s="146"/>
+      <c r="AA45" s="146"/>
+      <c r="AB45" s="146"/>
+      <c r="AC45" s="146"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="68" t="s">
         <v>120</v>
       </c>
@@ -6033,24 +6152,24 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="148"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="148"/>
-      <c r="R46" s="148"/>
-      <c r="S46" s="148"/>
-      <c r="T46" s="148"/>
-      <c r="U46" s="148"/>
-      <c r="V46" s="148"/>
-      <c r="W46" s="148"/>
-      <c r="X46" s="148"/>
-      <c r="Y46" s="148"/>
-      <c r="Z46" s="148"/>
-      <c r="AA46" s="148"/>
-      <c r="AB46" s="148"/>
-      <c r="AC46" s="148"/>
-    </row>
-    <row r="47" spans="2:29">
+      <c r="N46" s="146"/>
+      <c r="O46" s="151"/>
+      <c r="P46" s="151"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="146"/>
+      <c r="T46" s="146"/>
+      <c r="U46" s="146"/>
+      <c r="V46" s="146"/>
+      <c r="W46" s="146"/>
+      <c r="X46" s="146"/>
+      <c r="Y46" s="146"/>
+      <c r="Z46" s="146"/>
+      <c r="AA46" s="146"/>
+      <c r="AB46" s="146"/>
+      <c r="AC46" s="146"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="68" t="s">
         <v>120</v>
       </c>
@@ -6079,24 +6198,24 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="148"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="155"/>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="148"/>
-      <c r="S47" s="148"/>
-      <c r="T47" s="148"/>
-      <c r="U47" s="148"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="148"/>
-      <c r="X47" s="148"/>
-      <c r="Y47" s="148"/>
-      <c r="Z47" s="148"/>
-      <c r="AA47" s="148"/>
-      <c r="AB47" s="148"/>
-      <c r="AC47" s="148"/>
-    </row>
-    <row r="48" spans="2:29">
+      <c r="N47" s="146"/>
+      <c r="O47" s="151"/>
+      <c r="P47" s="151"/>
+      <c r="Q47" s="146"/>
+      <c r="R47" s="146"/>
+      <c r="S47" s="146"/>
+      <c r="T47" s="146"/>
+      <c r="U47" s="146"/>
+      <c r="V47" s="146"/>
+      <c r="W47" s="146"/>
+      <c r="X47" s="146"/>
+      <c r="Y47" s="146"/>
+      <c r="Z47" s="146"/>
+      <c r="AA47" s="146"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="146"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="83"/>
       <c r="C48" s="83"/>
       <c r="D48" s="83"/>
@@ -6117,24 +6236,24 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="148"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="148"/>
-      <c r="R48" s="148"/>
-      <c r="S48" s="148"/>
-      <c r="T48" s="148"/>
-      <c r="U48" s="148"/>
-      <c r="V48" s="148"/>
-      <c r="W48" s="148"/>
-      <c r="X48" s="148"/>
-      <c r="Y48" s="148"/>
-      <c r="Z48" s="148"/>
-      <c r="AA48" s="148"/>
-      <c r="AB48" s="148"/>
-      <c r="AC48" s="148"/>
-    </row>
-    <row r="49" spans="2:29">
+      <c r="N48" s="146"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="146"/>
+      <c r="R48" s="146"/>
+      <c r="S48" s="146"/>
+      <c r="T48" s="146"/>
+      <c r="U48" s="146"/>
+      <c r="V48" s="146"/>
+      <c r="W48" s="146"/>
+      <c r="X48" s="146"/>
+      <c r="Y48" s="146"/>
+      <c r="Z48" s="146"/>
+      <c r="AA48" s="146"/>
+      <c r="AB48" s="146"/>
+      <c r="AC48" s="146"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="68" t="s">
         <v>120</v>
       </c>
@@ -6163,24 +6282,24 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="148"/>
-      <c r="O49" s="155"/>
-      <c r="P49" s="155"/>
-      <c r="Q49" s="148"/>
-      <c r="R49" s="148"/>
-      <c r="S49" s="148"/>
-      <c r="T49" s="148"/>
-      <c r="U49" s="148"/>
-      <c r="V49" s="148"/>
-      <c r="W49" s="148"/>
-      <c r="X49" s="148"/>
-      <c r="Y49" s="148"/>
-      <c r="Z49" s="148"/>
-      <c r="AA49" s="148"/>
-      <c r="AB49" s="148"/>
-      <c r="AC49" s="148"/>
-    </row>
-    <row r="50" spans="2:29">
+      <c r="N49" s="146"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="146"/>
+      <c r="R49" s="146"/>
+      <c r="S49" s="146"/>
+      <c r="T49" s="146"/>
+      <c r="U49" s="146"/>
+      <c r="V49" s="146"/>
+      <c r="W49" s="146"/>
+      <c r="X49" s="146"/>
+      <c r="Y49" s="146"/>
+      <c r="Z49" s="146"/>
+      <c r="AA49" s="146"/>
+      <c r="AB49" s="146"/>
+      <c r="AC49" s="146"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="68" t="s">
         <v>120</v>
       </c>
@@ -6209,24 +6328,24 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="148"/>
-      <c r="O50" s="155"/>
-      <c r="P50" s="155"/>
-      <c r="Q50" s="148"/>
-      <c r="R50" s="148"/>
-      <c r="S50" s="148"/>
-      <c r="T50" s="148"/>
-      <c r="U50" s="148"/>
-      <c r="V50" s="148"/>
-      <c r="W50" s="148"/>
-      <c r="X50" s="148"/>
-      <c r="Y50" s="148"/>
-      <c r="Z50" s="148"/>
-      <c r="AA50" s="148"/>
-      <c r="AB50" s="148"/>
-      <c r="AC50" s="148"/>
-    </row>
-    <row r="51" spans="2:29">
+      <c r="N50" s="146"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="146"/>
+      <c r="R50" s="146"/>
+      <c r="S50" s="146"/>
+      <c r="T50" s="146"/>
+      <c r="U50" s="146"/>
+      <c r="V50" s="146"/>
+      <c r="W50" s="146"/>
+      <c r="X50" s="146"/>
+      <c r="Y50" s="146"/>
+      <c r="Z50" s="146"/>
+      <c r="AA50" s="146"/>
+      <c r="AB50" s="146"/>
+      <c r="AC50" s="146"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="68" t="s">
         <v>120</v>
       </c>
@@ -6255,24 +6374,24 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="148"/>
-      <c r="O51" s="155"/>
-      <c r="P51" s="155"/>
-      <c r="Q51" s="148"/>
-      <c r="R51" s="148"/>
-      <c r="S51" s="148"/>
-      <c r="T51" s="148"/>
-      <c r="U51" s="148"/>
-      <c r="V51" s="148"/>
-      <c r="W51" s="148"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
-      <c r="AB51" s="148"/>
-      <c r="AC51" s="148"/>
-    </row>
-    <row r="52" spans="2:29">
+      <c r="N51" s="146"/>
+      <c r="O51" s="151"/>
+      <c r="P51" s="151"/>
+      <c r="Q51" s="146"/>
+      <c r="R51" s="146"/>
+      <c r="S51" s="146"/>
+      <c r="T51" s="146"/>
+      <c r="U51" s="146"/>
+      <c r="V51" s="146"/>
+      <c r="W51" s="146"/>
+      <c r="X51" s="146"/>
+      <c r="Y51" s="146"/>
+      <c r="Z51" s="146"/>
+      <c r="AA51" s="146"/>
+      <c r="AB51" s="146"/>
+      <c r="AC51" s="146"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="68" t="s">
         <v>120</v>
       </c>
@@ -6301,24 +6420,24 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="148"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="148"/>
-      <c r="R52" s="148"/>
-      <c r="S52" s="148"/>
-      <c r="T52" s="148"/>
-      <c r="U52" s="148"/>
-      <c r="V52" s="148"/>
-      <c r="W52" s="148"/>
-      <c r="X52" s="148"/>
-      <c r="Y52" s="148"/>
-      <c r="Z52" s="148"/>
-      <c r="AA52" s="148"/>
-      <c r="AB52" s="148"/>
-      <c r="AC52" s="148"/>
-    </row>
-    <row r="53" spans="2:29">
+      <c r="N52" s="146"/>
+      <c r="O52" s="151"/>
+      <c r="P52" s="151"/>
+      <c r="Q52" s="146"/>
+      <c r="R52" s="146"/>
+      <c r="S52" s="146"/>
+      <c r="T52" s="146"/>
+      <c r="U52" s="146"/>
+      <c r="V52" s="146"/>
+      <c r="W52" s="146"/>
+      <c r="X52" s="146"/>
+      <c r="Y52" s="146"/>
+      <c r="Z52" s="146"/>
+      <c r="AA52" s="146"/>
+      <c r="AB52" s="146"/>
+      <c r="AC52" s="146"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="68" t="s">
         <v>120</v>
       </c>
@@ -6347,24 +6466,24 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="149"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="149"/>
-      <c r="R53" s="149"/>
-      <c r="S53" s="149"/>
-      <c r="T53" s="149"/>
-      <c r="U53" s="149"/>
-      <c r="V53" s="149"/>
-      <c r="W53" s="149"/>
-      <c r="X53" s="149"/>
-      <c r="Y53" s="149"/>
-      <c r="Z53" s="149"/>
-      <c r="AA53" s="149"/>
-      <c r="AB53" s="149"/>
-      <c r="AC53" s="149"/>
-    </row>
-    <row r="54" spans="2:29" ht="12.75" customHeight="1">
+      <c r="N53" s="147"/>
+      <c r="O53" s="152"/>
+      <c r="P53" s="152"/>
+      <c r="Q53" s="147"/>
+      <c r="R53" s="147"/>
+      <c r="S53" s="147"/>
+      <c r="T53" s="147"/>
+      <c r="U53" s="147"/>
+      <c r="V53" s="147"/>
+      <c r="W53" s="147"/>
+      <c r="X53" s="147"/>
+      <c r="Y53" s="147"/>
+      <c r="Z53" s="147"/>
+      <c r="AA53" s="147"/>
+      <c r="AB53" s="147"/>
+      <c r="AC53" s="147"/>
+    </row>
+    <row r="54" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="68" t="s">
         <v>120</v>
       </c>
@@ -6393,36 +6512,36 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="147" t="s">
+      <c r="N54" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="147" t="s">
-        <v>121</v>
-      </c>
-      <c r="R54" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="S54" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="T54" s="147" t="s">
+      <c r="O54" s="150"/>
+      <c r="P54" s="150"/>
+      <c r="Q54" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="S54" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="T54" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="U54" s="147" t="s">
+      <c r="U54" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="V54" s="144"/>
-      <c r="W54" s="144"/>
-      <c r="X54" s="144"/>
-      <c r="Y54" s="144"/>
-      <c r="Z54" s="144"/>
-      <c r="AA54" s="144"/>
-      <c r="AB54" s="144"/>
-      <c r="AC54" s="144"/>
-    </row>
-    <row r="55" spans="2:29">
+      <c r="V54" s="159"/>
+      <c r="W54" s="159"/>
+      <c r="X54" s="159"/>
+      <c r="Y54" s="159"/>
+      <c r="Z54" s="159"/>
+      <c r="AA54" s="159"/>
+      <c r="AB54" s="159"/>
+      <c r="AC54" s="159"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="68" t="s">
         <v>120</v>
       </c>
@@ -6451,24 +6570,24 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="148"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="155"/>
-      <c r="Q55" s="148"/>
-      <c r="R55" s="148"/>
-      <c r="S55" s="148"/>
-      <c r="T55" s="148"/>
-      <c r="U55" s="148"/>
-      <c r="V55" s="145"/>
-      <c r="W55" s="145"/>
-      <c r="X55" s="145"/>
-      <c r="Y55" s="145"/>
-      <c r="Z55" s="145"/>
-      <c r="AA55" s="145"/>
-      <c r="AB55" s="145"/>
-      <c r="AC55" s="145"/>
-    </row>
-    <row r="56" spans="2:29">
+      <c r="N55" s="146"/>
+      <c r="O55" s="151"/>
+      <c r="P55" s="151"/>
+      <c r="Q55" s="146"/>
+      <c r="R55" s="146"/>
+      <c r="S55" s="146"/>
+      <c r="T55" s="146"/>
+      <c r="U55" s="146"/>
+      <c r="V55" s="160"/>
+      <c r="W55" s="160"/>
+      <c r="X55" s="160"/>
+      <c r="Y55" s="160"/>
+      <c r="Z55" s="160"/>
+      <c r="AA55" s="160"/>
+      <c r="AB55" s="160"/>
+      <c r="AC55" s="160"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="68" t="s">
         <v>120</v>
       </c>
@@ -6497,24 +6616,24 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="148"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="148"/>
-      <c r="R56" s="148"/>
-      <c r="S56" s="148"/>
-      <c r="T56" s="148"/>
-      <c r="U56" s="148"/>
-      <c r="V56" s="145"/>
-      <c r="W56" s="145"/>
-      <c r="X56" s="145"/>
-      <c r="Y56" s="145"/>
-      <c r="Z56" s="145"/>
-      <c r="AA56" s="145"/>
-      <c r="AB56" s="145"/>
-      <c r="AC56" s="145"/>
-    </row>
-    <row r="57" spans="2:29">
+      <c r="N56" s="146"/>
+      <c r="O56" s="151"/>
+      <c r="P56" s="151"/>
+      <c r="Q56" s="146"/>
+      <c r="R56" s="146"/>
+      <c r="S56" s="146"/>
+      <c r="T56" s="146"/>
+      <c r="U56" s="146"/>
+      <c r="V56" s="160"/>
+      <c r="W56" s="160"/>
+      <c r="X56" s="160"/>
+      <c r="Y56" s="160"/>
+      <c r="Z56" s="160"/>
+      <c r="AA56" s="160"/>
+      <c r="AB56" s="160"/>
+      <c r="AC56" s="160"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" s="83"/>
       <c r="C57" s="83"/>
       <c r="D57" s="83"/>
@@ -6535,24 +6654,24 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="148"/>
-      <c r="O57" s="155"/>
-      <c r="P57" s="155"/>
-      <c r="Q57" s="148"/>
-      <c r="R57" s="148"/>
-      <c r="S57" s="148"/>
-      <c r="T57" s="148"/>
-      <c r="U57" s="148"/>
-      <c r="V57" s="145"/>
-      <c r="W57" s="145"/>
-      <c r="X57" s="145"/>
-      <c r="Y57" s="145"/>
-      <c r="Z57" s="145"/>
-      <c r="AA57" s="145"/>
-      <c r="AB57" s="145"/>
-      <c r="AC57" s="145"/>
-    </row>
-    <row r="58" spans="2:29">
+      <c r="N57" s="146"/>
+      <c r="O57" s="151"/>
+      <c r="P57" s="151"/>
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="160"/>
+      <c r="W57" s="160"/>
+      <c r="X57" s="160"/>
+      <c r="Y57" s="160"/>
+      <c r="Z57" s="160"/>
+      <c r="AA57" s="160"/>
+      <c r="AB57" s="160"/>
+      <c r="AC57" s="160"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B58" s="68" t="s">
         <v>120</v>
       </c>
@@ -6581,24 +6700,24 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="148"/>
-      <c r="O58" s="155"/>
-      <c r="P58" s="155"/>
-      <c r="Q58" s="148"/>
-      <c r="R58" s="148"/>
-      <c r="S58" s="148"/>
-      <c r="T58" s="148"/>
-      <c r="U58" s="148"/>
-      <c r="V58" s="145"/>
-      <c r="W58" s="145"/>
-      <c r="X58" s="145"/>
-      <c r="Y58" s="145"/>
-      <c r="Z58" s="145"/>
-      <c r="AA58" s="145"/>
-      <c r="AB58" s="145"/>
-      <c r="AC58" s="145"/>
-    </row>
-    <row r="59" spans="2:29">
+      <c r="N58" s="146"/>
+      <c r="O58" s="151"/>
+      <c r="P58" s="151"/>
+      <c r="Q58" s="146"/>
+      <c r="R58" s="146"/>
+      <c r="S58" s="146"/>
+      <c r="T58" s="146"/>
+      <c r="U58" s="146"/>
+      <c r="V58" s="160"/>
+      <c r="W58" s="160"/>
+      <c r="X58" s="160"/>
+      <c r="Y58" s="160"/>
+      <c r="Z58" s="160"/>
+      <c r="AA58" s="160"/>
+      <c r="AB58" s="160"/>
+      <c r="AC58" s="160"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B59" s="83"/>
       <c r="C59" s="83"/>
       <c r="D59" s="83"/>
@@ -6619,24 +6738,24 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="148"/>
-      <c r="O59" s="155"/>
-      <c r="P59" s="155"/>
-      <c r="Q59" s="148"/>
-      <c r="R59" s="148"/>
-      <c r="S59" s="148"/>
-      <c r="T59" s="148"/>
-      <c r="U59" s="148"/>
-      <c r="V59" s="145"/>
-      <c r="W59" s="145"/>
-      <c r="X59" s="145"/>
-      <c r="Y59" s="145"/>
-      <c r="Z59" s="145"/>
-      <c r="AA59" s="145"/>
-      <c r="AB59" s="145"/>
-      <c r="AC59" s="145"/>
-    </row>
-    <row r="60" spans="2:29">
+      <c r="N59" s="146"/>
+      <c r="O59" s="151"/>
+      <c r="P59" s="151"/>
+      <c r="Q59" s="146"/>
+      <c r="R59" s="146"/>
+      <c r="S59" s="146"/>
+      <c r="T59" s="146"/>
+      <c r="U59" s="146"/>
+      <c r="V59" s="160"/>
+      <c r="W59" s="160"/>
+      <c r="X59" s="160"/>
+      <c r="Y59" s="160"/>
+      <c r="Z59" s="160"/>
+      <c r="AA59" s="160"/>
+      <c r="AB59" s="160"/>
+      <c r="AC59" s="160"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" s="68" t="s">
         <v>120</v>
       </c>
@@ -6665,24 +6784,24 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="148"/>
-      <c r="O60" s="155"/>
-      <c r="P60" s="155"/>
-      <c r="Q60" s="148"/>
-      <c r="R60" s="148"/>
-      <c r="S60" s="148"/>
-      <c r="T60" s="148"/>
-      <c r="U60" s="148"/>
-      <c r="V60" s="145"/>
-      <c r="W60" s="145"/>
-      <c r="X60" s="145"/>
-      <c r="Y60" s="145"/>
-      <c r="Z60" s="145"/>
-      <c r="AA60" s="145"/>
-      <c r="AB60" s="145"/>
-      <c r="AC60" s="145"/>
-    </row>
-    <row r="61" spans="2:29">
+      <c r="N60" s="146"/>
+      <c r="O60" s="151"/>
+      <c r="P60" s="151"/>
+      <c r="Q60" s="146"/>
+      <c r="R60" s="146"/>
+      <c r="S60" s="146"/>
+      <c r="T60" s="146"/>
+      <c r="U60" s="146"/>
+      <c r="V60" s="160"/>
+      <c r="W60" s="160"/>
+      <c r="X60" s="160"/>
+      <c r="Y60" s="160"/>
+      <c r="Z60" s="160"/>
+      <c r="AA60" s="160"/>
+      <c r="AB60" s="160"/>
+      <c r="AC60" s="160"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" s="68" t="s">
         <v>120</v>
       </c>
@@ -6711,24 +6830,24 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="156"/>
-      <c r="Q61" s="149"/>
-      <c r="R61" s="149"/>
-      <c r="S61" s="149"/>
-      <c r="T61" s="149"/>
-      <c r="U61" s="149"/>
-      <c r="V61" s="146"/>
-      <c r="W61" s="146"/>
-      <c r="X61" s="146"/>
-      <c r="Y61" s="146"/>
-      <c r="Z61" s="146"/>
-      <c r="AA61" s="146"/>
-      <c r="AB61" s="146"/>
-      <c r="AC61" s="146"/>
-    </row>
-    <row r="62" spans="2:29">
+      <c r="N61" s="147"/>
+      <c r="O61" s="152"/>
+      <c r="P61" s="152"/>
+      <c r="Q61" s="147"/>
+      <c r="R61" s="147"/>
+      <c r="S61" s="147"/>
+      <c r="T61" s="147"/>
+      <c r="U61" s="147"/>
+      <c r="V61" s="161"/>
+      <c r="W61" s="161"/>
+      <c r="X61" s="161"/>
+      <c r="Y61" s="161"/>
+      <c r="Z61" s="161"/>
+      <c r="AA61" s="161"/>
+      <c r="AB61" s="161"/>
+      <c r="AC61" s="161"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" s="83"/>
       <c r="C62" s="83"/>
       <c r="D62" s="83"/>
@@ -6778,7 +6897,7 @@
       <c r="AB62" s="68"/>
       <c r="AC62" s="68"/>
     </row>
-    <row r="63" spans="2:29">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B63" s="83"/>
       <c r="C63" s="83"/>
       <c r="D63" s="83"/>
@@ -6828,7 +6947,7 @@
       <c r="AB63" s="68"/>
       <c r="AC63" s="68"/>
     </row>
-    <row r="64" spans="2:29">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B64" s="83"/>
       <c r="C64" s="83"/>
       <c r="D64" s="83"/>
@@ -6876,7 +6995,7 @@
       <c r="AB64" s="96"/>
       <c r="AC64" s="96"/>
     </row>
-    <row r="65" spans="2:23">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="60"/>
@@ -6900,7 +7019,7 @@
       <c r="V65" s="59"/>
       <c r="W65" s="59"/>
     </row>
-    <row r="66" spans="2:23">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="60"/>
@@ -6924,7 +7043,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="59"/>
     </row>
-    <row r="67" spans="2:23">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="60"/>
@@ -6948,7 +7067,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="59"/>
     </row>
-    <row r="68" spans="2:23">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
@@ -6972,7 +7091,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="59"/>
     </row>
-    <row r="69" spans="2:23">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
@@ -6996,7 +7115,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="59"/>
     </row>
-    <row r="70" spans="2:23">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -7020,7 +7139,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="59"/>
     </row>
-    <row r="71" spans="2:23">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
@@ -7044,7 +7163,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="59"/>
     </row>
-    <row r="72" spans="2:23">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
@@ -7068,7 +7187,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="59"/>
     </row>
-    <row r="73" spans="2:23">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
@@ -7092,7 +7211,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="59"/>
     </row>
-    <row r="74" spans="2:23">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="60"/>
@@ -7116,7 +7235,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="59"/>
     </row>
-    <row r="75" spans="2:23">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
@@ -7140,7 +7259,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="59"/>
     </row>
-    <row r="76" spans="2:23">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -7164,7 +7283,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="59"/>
     </row>
-    <row r="77" spans="2:23">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="60"/>
@@ -7188,7 +7307,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="59"/>
     </row>
-    <row r="78" spans="2:23">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="60"/>
@@ -7212,7 +7331,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="59"/>
     </row>
-    <row r="79" spans="2:23">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="60"/>
@@ -7236,7 +7355,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="59"/>
     </row>
-    <row r="80" spans="2:23">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="60"/>
@@ -7260,7 +7379,7 @@
       <c r="V80" s="59"/>
       <c r="W80" s="59"/>
     </row>
-    <row r="81" spans="2:23">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="60"/>
@@ -7284,7 +7403,7 @@
       <c r="V81" s="59"/>
       <c r="W81" s="59"/>
     </row>
-    <row r="82" spans="2:23">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
@@ -7308,7 +7427,7 @@
       <c r="V82" s="59"/>
       <c r="W82" s="59"/>
     </row>
-    <row r="83" spans="2:23">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="60"/>
@@ -7332,7 +7451,7 @@
       <c r="V83" s="59"/>
       <c r="W83" s="59"/>
     </row>
-    <row r="84" spans="2:23">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="60"/>
@@ -7356,7 +7475,7 @@
       <c r="V84" s="59"/>
       <c r="W84" s="59"/>
     </row>
-    <row r="85" spans="2:23">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="60"/>
@@ -7380,7 +7499,7 @@
       <c r="V85" s="59"/>
       <c r="W85" s="59"/>
     </row>
-    <row r="86" spans="2:23">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="60"/>
@@ -7404,7 +7523,7 @@
       <c r="V86" s="59"/>
       <c r="W86" s="59"/>
     </row>
-    <row r="87" spans="2:23">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="60"/>
@@ -7428,7 +7547,7 @@
       <c r="V87" s="59"/>
       <c r="W87" s="59"/>
     </row>
-    <row r="88" spans="2:23">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="60"/>
@@ -7452,7 +7571,7 @@
       <c r="V88" s="59"/>
       <c r="W88" s="59"/>
     </row>
-    <row r="89" spans="2:23">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="60"/>
@@ -7476,7 +7595,7 @@
       <c r="V89" s="59"/>
       <c r="W89" s="59"/>
     </row>
-    <row r="90" spans="2:23">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="60"/>
@@ -7500,7 +7619,7 @@
       <c r="V90" s="59"/>
       <c r="W90" s="59"/>
     </row>
-    <row r="91" spans="2:23">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="60"/>
@@ -7524,7 +7643,7 @@
       <c r="V91" s="59"/>
       <c r="W91" s="59"/>
     </row>
-    <row r="92" spans="2:23">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="60"/>
@@ -7548,7 +7667,7 @@
       <c r="V92" s="59"/>
       <c r="W92" s="59"/>
     </row>
-    <row r="93" spans="2:23">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="60"/>
@@ -7572,7 +7691,7 @@
       <c r="V93" s="59"/>
       <c r="W93" s="59"/>
     </row>
-    <row r="94" spans="2:23">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="60"/>
@@ -7596,7 +7715,7 @@
       <c r="V94" s="59"/>
       <c r="W94" s="59"/>
     </row>
-    <row r="95" spans="2:23">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="60"/>
@@ -7620,7 +7739,7 @@
       <c r="V95" s="59"/>
       <c r="W95" s="59"/>
     </row>
-    <row r="96" spans="2:23">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="60"/>
@@ -7644,7 +7763,7 @@
       <c r="V96" s="59"/>
       <c r="W96" s="59"/>
     </row>
-    <row r="97" spans="2:23">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="60"/>
@@ -7670,23 +7789,24 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AC39:AC41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="W39:W41"/>
-    <mergeCell ref="X39:X41"/>
-    <mergeCell ref="Y39:Y41"/>
-    <mergeCell ref="Z39:Z41"/>
-    <mergeCell ref="AA39:AA41"/>
-    <mergeCell ref="AB39:AB41"/>
+    <mergeCell ref="AA54:AA61"/>
+    <mergeCell ref="AB54:AB61"/>
+    <mergeCell ref="AC54:AC61"/>
+    <mergeCell ref="Y43:Y53"/>
+    <mergeCell ref="Z43:Z53"/>
+    <mergeCell ref="AA43:AA53"/>
+    <mergeCell ref="AB43:AB53"/>
+    <mergeCell ref="AC43:AC53"/>
+    <mergeCell ref="Z54:Z61"/>
+    <mergeCell ref="Y54:Y61"/>
+    <mergeCell ref="U43:U53"/>
+    <mergeCell ref="V43:V53"/>
+    <mergeCell ref="W43:W53"/>
+    <mergeCell ref="X43:X53"/>
+    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="V54:V61"/>
+    <mergeCell ref="W54:W61"/>
+    <mergeCell ref="X54:X61"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q54:Q61"/>
@@ -7703,24 +7823,23 @@
     <mergeCell ref="P54:P61"/>
     <mergeCell ref="O54:O61"/>
     <mergeCell ref="N54:N61"/>
-    <mergeCell ref="U43:U53"/>
-    <mergeCell ref="V43:V53"/>
-    <mergeCell ref="W43:W53"/>
-    <mergeCell ref="X43:X53"/>
-    <mergeCell ref="U54:U61"/>
-    <mergeCell ref="V54:V61"/>
-    <mergeCell ref="W54:W61"/>
-    <mergeCell ref="X54:X61"/>
-    <mergeCell ref="AA54:AA61"/>
-    <mergeCell ref="AB54:AB61"/>
-    <mergeCell ref="AC54:AC61"/>
-    <mergeCell ref="Y43:Y53"/>
-    <mergeCell ref="Z43:Z53"/>
-    <mergeCell ref="AA43:AA53"/>
-    <mergeCell ref="AB43:AB53"/>
-    <mergeCell ref="AC43:AC53"/>
-    <mergeCell ref="Z54:Z61"/>
-    <mergeCell ref="Y54:Y61"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="W39:W41"/>
+    <mergeCell ref="X39:X41"/>
+    <mergeCell ref="Y39:Y41"/>
+    <mergeCell ref="Z39:Z41"/>
+    <mergeCell ref="AA39:AA41"/>
+    <mergeCell ref="AB39:AB41"/>
+    <mergeCell ref="AC39:AC41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="R39:R41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7730,26 +7849,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId2"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7762,7 +7906,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7796,52 +7940,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D1" s="79"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="150" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="157" t="s">
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7925,7 +8069,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" ht="72">
+    <row r="4" spans="2:29" ht="72" x14ac:dyDescent="0.2">
       <c r="B4" s="72" t="s">
         <v>120</v>
       </c>
@@ -7987,7 +8131,7 @@
       <c r="AB4" s="96"/>
       <c r="AC4" s="96"/>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="101"/>
       <c r="C5" s="101"/>
       <c r="D5" s="103"/>
@@ -8033,7 +8177,7 @@
       <c r="AB5" s="96"/>
       <c r="AC5" s="96"/>
     </row>
-    <row r="6" spans="2:29" ht="96">
+    <row r="6" spans="2:29" ht="96" x14ac:dyDescent="0.2">
       <c r="B6" s="72" t="s">
         <v>120</v>
       </c>
@@ -8095,7 +8239,7 @@
       <c r="AB6" s="96"/>
       <c r="AC6" s="96"/>
     </row>
-    <row r="7" spans="2:29">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="60"/>
@@ -8119,7 +8263,7 @@
       <c r="V7" s="59"/>
       <c r="W7" s="59"/>
     </row>
-    <row r="8" spans="2:29">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
@@ -8157,7 +8301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8165,7 +8309,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -8173,7 +8317,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -8193,7 +8337,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -8213,7 +8357,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -8238,7 +8382,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -8260,7 +8404,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -8268,7 +8412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -8276,7 +8420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -8284,7 +8428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -8292,7 +8436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -8300,7 +8444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -8308,7 +8452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -8316,7 +8460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -8324,7 +8468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -8332,7 +8476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -8340,7 +8484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -8348,7 +8492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -8356,7 +8500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -8364,7 +8508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -8372,7 +8516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -8380,7 +8524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -8388,7 +8532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -8396,7 +8540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -8415,6 +8559,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8463,26 +8616,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8497,15 +8649,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8518,12 +8670,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_FIXA - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_FIXA - ATUALIZADO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="873" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="873" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -2015,6 +2015,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2027,15 +2045,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2075,20 +2084,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2105,12 +2114,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2123,7 +2126,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2135,47 +2144,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2871,10 +2871,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="108"/>
+      <c r="D2" s="114"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
@@ -2912,28 +2912,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
@@ -2942,17 +2942,17 @@
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121" t="s">
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
@@ -2961,84 +2961,92 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="113"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="130"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="130"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3049,14 +3057,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3114,17 +3114,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
@@ -3133,93 +3133,93 @@
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="82" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="82" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="82" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="82" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="82" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="82" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -3233,17 +3233,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
@@ -3255,16 +3255,16 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="140" t="s">
+      <c r="F16" s="143"/>
+      <c r="G16" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -3274,25 +3274,25 @@
       <c r="D17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="135"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -3306,11 +3306,11 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
@@ -3351,17 +3351,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
@@ -3373,61 +3373,52 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="133" t="s">
+      <c r="E26" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133" t="s">
+      <c r="F26" s="136"/>
+      <c r="G26" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3444,6 +3435,15 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3457,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3511,11 +3511,11 @@
   </sheetPr>
   <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H39" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="Q33" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomRight" activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3558,39 +3558,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157" t="s">
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="153" t="s">
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -5840,34 +5840,34 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="145" t="s">
+      <c r="N39" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="S39" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="T39" s="145" t="s">
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="S39" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="T39" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="145" t="s">
+      <c r="U39" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="V39" s="145"/>
-      <c r="W39" s="145"/>
-      <c r="X39" s="145"/>
-      <c r="Y39" s="145"/>
-      <c r="Z39" s="145"/>
-      <c r="AA39" s="145"/>
-      <c r="AB39" s="145"/>
-      <c r="AC39" s="145"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="148"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
@@ -5896,22 +5896,22 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="151"/>
-      <c r="P40" s="151"/>
-      <c r="Q40" s="146"/>
-      <c r="R40" s="146"/>
-      <c r="S40" s="146"/>
-      <c r="T40" s="146"/>
-      <c r="U40" s="146"/>
-      <c r="V40" s="146"/>
-      <c r="W40" s="146"/>
-      <c r="X40" s="146"/>
-      <c r="Y40" s="146"/>
-      <c r="Z40" s="146"/>
-      <c r="AA40" s="146"/>
-      <c r="AB40" s="146"/>
-      <c r="AC40" s="146"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="156"/>
+      <c r="P40" s="156"/>
+      <c r="Q40" s="149"/>
+      <c r="R40" s="149"/>
+      <c r="S40" s="149"/>
+      <c r="T40" s="149"/>
+      <c r="U40" s="149"/>
+      <c r="V40" s="149"/>
+      <c r="W40" s="149"/>
+      <c r="X40" s="149"/>
+      <c r="Y40" s="149"/>
+      <c r="Z40" s="149"/>
+      <c r="AA40" s="149"/>
+      <c r="AB40" s="149"/>
+      <c r="AC40" s="149"/>
     </row>
     <row r="41" spans="2:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
@@ -5940,22 +5940,22 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="152"/>
-      <c r="P41" s="152"/>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="147"/>
-      <c r="V41" s="147"/>
-      <c r="W41" s="147"/>
-      <c r="X41" s="147"/>
-      <c r="Y41" s="147"/>
-      <c r="Z41" s="147"/>
-      <c r="AA41" s="147"/>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="147"/>
+      <c r="N41" s="161"/>
+      <c r="O41" s="157"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="150"/>
+      <c r="R41" s="150"/>
+      <c r="S41" s="150"/>
+      <c r="T41" s="150"/>
+      <c r="U41" s="150"/>
+      <c r="V41" s="150"/>
+      <c r="W41" s="150"/>
+      <c r="X41" s="150"/>
+      <c r="Y41" s="150"/>
+      <c r="Z41" s="150"/>
+      <c r="AA41" s="150"/>
+      <c r="AB41" s="150"/>
+      <c r="AC41" s="150"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="83"/>
@@ -6030,34 +6030,34 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="145" t="s">
+      <c r="N43" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="O43" s="150"/>
-      <c r="P43" s="150"/>
-      <c r="Q43" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="S43" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="T43" s="145" t="s">
+      <c r="O43" s="155"/>
+      <c r="P43" s="155"/>
+      <c r="Q43" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="S43" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="T43" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="145" t="s">
+      <c r="U43" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="V43" s="145"/>
-      <c r="W43" s="145"/>
-      <c r="X43" s="145"/>
-      <c r="Y43" s="145"/>
-      <c r="Z43" s="145"/>
-      <c r="AA43" s="145"/>
-      <c r="AB43" s="145"/>
-      <c r="AC43" s="145"/>
+      <c r="V43" s="148"/>
+      <c r="W43" s="148"/>
+      <c r="X43" s="148"/>
+      <c r="Y43" s="148"/>
+      <c r="Z43" s="148"/>
+      <c r="AA43" s="148"/>
+      <c r="AB43" s="148"/>
+      <c r="AC43" s="148"/>
     </row>
     <row r="44" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B44" s="83"/>
@@ -6074,22 +6074,22 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="146"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="146"/>
-      <c r="R44" s="146"/>
-      <c r="S44" s="146"/>
-      <c r="T44" s="146"/>
-      <c r="U44" s="146"/>
-      <c r="V44" s="146"/>
-      <c r="W44" s="146"/>
-      <c r="X44" s="146"/>
-      <c r="Y44" s="146"/>
-      <c r="Z44" s="146"/>
-      <c r="AA44" s="146"/>
-      <c r="AB44" s="146"/>
-      <c r="AC44" s="146"/>
+      <c r="N44" s="149"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="156"/>
+      <c r="Q44" s="149"/>
+      <c r="R44" s="149"/>
+      <c r="S44" s="149"/>
+      <c r="T44" s="149"/>
+      <c r="U44" s="149"/>
+      <c r="V44" s="149"/>
+      <c r="W44" s="149"/>
+      <c r="X44" s="149"/>
+      <c r="Y44" s="149"/>
+      <c r="Z44" s="149"/>
+      <c r="AA44" s="149"/>
+      <c r="AB44" s="149"/>
+      <c r="AC44" s="149"/>
     </row>
     <row r="45" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B45" s="83"/>
@@ -6106,22 +6106,22 @@
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="151"/>
-      <c r="P45" s="151"/>
-      <c r="Q45" s="146"/>
-      <c r="R45" s="146"/>
-      <c r="S45" s="146"/>
-      <c r="T45" s="146"/>
-      <c r="U45" s="146"/>
-      <c r="V45" s="146"/>
-      <c r="W45" s="146"/>
-      <c r="X45" s="146"/>
-      <c r="Y45" s="146"/>
-      <c r="Z45" s="146"/>
-      <c r="AA45" s="146"/>
-      <c r="AB45" s="146"/>
-      <c r="AC45" s="146"/>
+      <c r="N45" s="149"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="149"/>
+      <c r="R45" s="149"/>
+      <c r="S45" s="149"/>
+      <c r="T45" s="149"/>
+      <c r="U45" s="149"/>
+      <c r="V45" s="149"/>
+      <c r="W45" s="149"/>
+      <c r="X45" s="149"/>
+      <c r="Y45" s="149"/>
+      <c r="Z45" s="149"/>
+      <c r="AA45" s="149"/>
+      <c r="AB45" s="149"/>
+      <c r="AC45" s="149"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="68" t="s">
@@ -6152,22 +6152,22 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="146"/>
-      <c r="O46" s="151"/>
-      <c r="P46" s="151"/>
-      <c r="Q46" s="146"/>
-      <c r="R46" s="146"/>
-      <c r="S46" s="146"/>
-      <c r="T46" s="146"/>
-      <c r="U46" s="146"/>
-      <c r="V46" s="146"/>
-      <c r="W46" s="146"/>
-      <c r="X46" s="146"/>
-      <c r="Y46" s="146"/>
-      <c r="Z46" s="146"/>
-      <c r="AA46" s="146"/>
-      <c r="AB46" s="146"/>
-      <c r="AC46" s="146"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="156"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="149"/>
+      <c r="R46" s="149"/>
+      <c r="S46" s="149"/>
+      <c r="T46" s="149"/>
+      <c r="U46" s="149"/>
+      <c r="V46" s="149"/>
+      <c r="W46" s="149"/>
+      <c r="X46" s="149"/>
+      <c r="Y46" s="149"/>
+      <c r="Z46" s="149"/>
+      <c r="AA46" s="149"/>
+      <c r="AB46" s="149"/>
+      <c r="AC46" s="149"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="68" t="s">
@@ -6198,22 +6198,22 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="151"/>
-      <c r="P47" s="151"/>
-      <c r="Q47" s="146"/>
-      <c r="R47" s="146"/>
-      <c r="S47" s="146"/>
-      <c r="T47" s="146"/>
-      <c r="U47" s="146"/>
-      <c r="V47" s="146"/>
-      <c r="W47" s="146"/>
-      <c r="X47" s="146"/>
-      <c r="Y47" s="146"/>
-      <c r="Z47" s="146"/>
-      <c r="AA47" s="146"/>
-      <c r="AB47" s="146"/>
-      <c r="AC47" s="146"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="156"/>
+      <c r="P47" s="156"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="149"/>
+      <c r="S47" s="149"/>
+      <c r="T47" s="149"/>
+      <c r="U47" s="149"/>
+      <c r="V47" s="149"/>
+      <c r="W47" s="149"/>
+      <c r="X47" s="149"/>
+      <c r="Y47" s="149"/>
+      <c r="Z47" s="149"/>
+      <c r="AA47" s="149"/>
+      <c r="AB47" s="149"/>
+      <c r="AC47" s="149"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="83"/>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="146"/>
-      <c r="O48" s="151"/>
-      <c r="P48" s="151"/>
-      <c r="Q48" s="146"/>
-      <c r="R48" s="146"/>
-      <c r="S48" s="146"/>
-      <c r="T48" s="146"/>
-      <c r="U48" s="146"/>
-      <c r="V48" s="146"/>
-      <c r="W48" s="146"/>
-      <c r="X48" s="146"/>
-      <c r="Y48" s="146"/>
-      <c r="Z48" s="146"/>
-      <c r="AA48" s="146"/>
-      <c r="AB48" s="146"/>
-      <c r="AC48" s="146"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="156"/>
+      <c r="P48" s="156"/>
+      <c r="Q48" s="149"/>
+      <c r="R48" s="149"/>
+      <c r="S48" s="149"/>
+      <c r="T48" s="149"/>
+      <c r="U48" s="149"/>
+      <c r="V48" s="149"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="149"/>
+      <c r="Y48" s="149"/>
+      <c r="Z48" s="149"/>
+      <c r="AA48" s="149"/>
+      <c r="AB48" s="149"/>
+      <c r="AC48" s="149"/>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="68" t="s">
@@ -6282,22 +6282,22 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="146"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="151"/>
-      <c r="Q49" s="146"/>
-      <c r="R49" s="146"/>
-      <c r="S49" s="146"/>
-      <c r="T49" s="146"/>
-      <c r="U49" s="146"/>
-      <c r="V49" s="146"/>
-      <c r="W49" s="146"/>
-      <c r="X49" s="146"/>
-      <c r="Y49" s="146"/>
-      <c r="Z49" s="146"/>
-      <c r="AA49" s="146"/>
-      <c r="AB49" s="146"/>
-      <c r="AC49" s="146"/>
+      <c r="N49" s="149"/>
+      <c r="O49" s="156"/>
+      <c r="P49" s="156"/>
+      <c r="Q49" s="149"/>
+      <c r="R49" s="149"/>
+      <c r="S49" s="149"/>
+      <c r="T49" s="149"/>
+      <c r="U49" s="149"/>
+      <c r="V49" s="149"/>
+      <c r="W49" s="149"/>
+      <c r="X49" s="149"/>
+      <c r="Y49" s="149"/>
+      <c r="Z49" s="149"/>
+      <c r="AA49" s="149"/>
+      <c r="AB49" s="149"/>
+      <c r="AC49" s="149"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="68" t="s">
@@ -6328,22 +6328,22 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="146"/>
-      <c r="O50" s="151"/>
-      <c r="P50" s="151"/>
-      <c r="Q50" s="146"/>
-      <c r="R50" s="146"/>
-      <c r="S50" s="146"/>
-      <c r="T50" s="146"/>
-      <c r="U50" s="146"/>
-      <c r="V50" s="146"/>
-      <c r="W50" s="146"/>
-      <c r="X50" s="146"/>
-      <c r="Y50" s="146"/>
-      <c r="Z50" s="146"/>
-      <c r="AA50" s="146"/>
-      <c r="AB50" s="146"/>
-      <c r="AC50" s="146"/>
+      <c r="N50" s="149"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="149"/>
+      <c r="R50" s="149"/>
+      <c r="S50" s="149"/>
+      <c r="T50" s="149"/>
+      <c r="U50" s="149"/>
+      <c r="V50" s="149"/>
+      <c r="W50" s="149"/>
+      <c r="X50" s="149"/>
+      <c r="Y50" s="149"/>
+      <c r="Z50" s="149"/>
+      <c r="AA50" s="149"/>
+      <c r="AB50" s="149"/>
+      <c r="AC50" s="149"/>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="68" t="s">
@@ -6374,22 +6374,22 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="146"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="151"/>
-      <c r="Q51" s="146"/>
-      <c r="R51" s="146"/>
-      <c r="S51" s="146"/>
-      <c r="T51" s="146"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="146"/>
-      <c r="W51" s="146"/>
-      <c r="X51" s="146"/>
-      <c r="Y51" s="146"/>
-      <c r="Z51" s="146"/>
-      <c r="AA51" s="146"/>
-      <c r="AB51" s="146"/>
-      <c r="AC51" s="146"/>
+      <c r="N51" s="149"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="156"/>
+      <c r="Q51" s="149"/>
+      <c r="R51" s="149"/>
+      <c r="S51" s="149"/>
+      <c r="T51" s="149"/>
+      <c r="U51" s="149"/>
+      <c r="V51" s="149"/>
+      <c r="W51" s="149"/>
+      <c r="X51" s="149"/>
+      <c r="Y51" s="149"/>
+      <c r="Z51" s="149"/>
+      <c r="AA51" s="149"/>
+      <c r="AB51" s="149"/>
+      <c r="AC51" s="149"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="68" t="s">
@@ -6420,22 +6420,22 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="146"/>
-      <c r="O52" s="151"/>
-      <c r="P52" s="151"/>
-      <c r="Q52" s="146"/>
-      <c r="R52" s="146"/>
-      <c r="S52" s="146"/>
-      <c r="T52" s="146"/>
-      <c r="U52" s="146"/>
-      <c r="V52" s="146"/>
-      <c r="W52" s="146"/>
-      <c r="X52" s="146"/>
-      <c r="Y52" s="146"/>
-      <c r="Z52" s="146"/>
-      <c r="AA52" s="146"/>
-      <c r="AB52" s="146"/>
-      <c r="AC52" s="146"/>
+      <c r="N52" s="149"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="149"/>
+      <c r="R52" s="149"/>
+      <c r="S52" s="149"/>
+      <c r="T52" s="149"/>
+      <c r="U52" s="149"/>
+      <c r="V52" s="149"/>
+      <c r="W52" s="149"/>
+      <c r="X52" s="149"/>
+      <c r="Y52" s="149"/>
+      <c r="Z52" s="149"/>
+      <c r="AA52" s="149"/>
+      <c r="AB52" s="149"/>
+      <c r="AC52" s="149"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="68" t="s">
@@ -6466,22 +6466,22 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="147"/>
-      <c r="O53" s="152"/>
-      <c r="P53" s="152"/>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="147"/>
-      <c r="S53" s="147"/>
-      <c r="T53" s="147"/>
-      <c r="U53" s="147"/>
-      <c r="V53" s="147"/>
-      <c r="W53" s="147"/>
-      <c r="X53" s="147"/>
-      <c r="Y53" s="147"/>
-      <c r="Z53" s="147"/>
-      <c r="AA53" s="147"/>
-      <c r="AB53" s="147"/>
-      <c r="AC53" s="147"/>
+      <c r="N53" s="150"/>
+      <c r="O53" s="157"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="150"/>
+      <c r="R53" s="150"/>
+      <c r="S53" s="150"/>
+      <c r="T53" s="150"/>
+      <c r="U53" s="150"/>
+      <c r="V53" s="150"/>
+      <c r="W53" s="150"/>
+      <c r="X53" s="150"/>
+      <c r="Y53" s="150"/>
+      <c r="Z53" s="150"/>
+      <c r="AA53" s="150"/>
+      <c r="AB53" s="150"/>
+      <c r="AC53" s="150"/>
     </row>
     <row r="54" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="68" t="s">
@@ -6512,34 +6512,34 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="145" t="s">
+      <c r="N54" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="O54" s="150"/>
-      <c r="P54" s="150"/>
-      <c r="Q54" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="R54" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="S54" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="T54" s="145" t="s">
+      <c r="O54" s="155"/>
+      <c r="P54" s="155"/>
+      <c r="Q54" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="S54" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="T54" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="U54" s="145" t="s">
+      <c r="U54" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="V54" s="159"/>
-      <c r="W54" s="159"/>
-      <c r="X54" s="159"/>
-      <c r="Y54" s="159"/>
-      <c r="Z54" s="159"/>
-      <c r="AA54" s="159"/>
-      <c r="AB54" s="159"/>
-      <c r="AC54" s="159"/>
+      <c r="V54" s="145"/>
+      <c r="W54" s="145"/>
+      <c r="X54" s="145"/>
+      <c r="Y54" s="145"/>
+      <c r="Z54" s="145"/>
+      <c r="AA54" s="145"/>
+      <c r="AB54" s="145"/>
+      <c r="AC54" s="145"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="68" t="s">
@@ -6570,22 +6570,22 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="146"/>
-      <c r="O55" s="151"/>
-      <c r="P55" s="151"/>
-      <c r="Q55" s="146"/>
-      <c r="R55" s="146"/>
-      <c r="S55" s="146"/>
-      <c r="T55" s="146"/>
-      <c r="U55" s="146"/>
-      <c r="V55" s="160"/>
-      <c r="W55" s="160"/>
-      <c r="X55" s="160"/>
-      <c r="Y55" s="160"/>
-      <c r="Z55" s="160"/>
-      <c r="AA55" s="160"/>
-      <c r="AB55" s="160"/>
-      <c r="AC55" s="160"/>
+      <c r="N55" s="149"/>
+      <c r="O55" s="156"/>
+      <c r="P55" s="156"/>
+      <c r="Q55" s="149"/>
+      <c r="R55" s="149"/>
+      <c r="S55" s="149"/>
+      <c r="T55" s="149"/>
+      <c r="U55" s="149"/>
+      <c r="V55" s="146"/>
+      <c r="W55" s="146"/>
+      <c r="X55" s="146"/>
+      <c r="Y55" s="146"/>
+      <c r="Z55" s="146"/>
+      <c r="AA55" s="146"/>
+      <c r="AB55" s="146"/>
+      <c r="AC55" s="146"/>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="68" t="s">
@@ -6616,22 +6616,22 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="146"/>
-      <c r="O56" s="151"/>
-      <c r="P56" s="151"/>
-      <c r="Q56" s="146"/>
-      <c r="R56" s="146"/>
-      <c r="S56" s="146"/>
-      <c r="T56" s="146"/>
-      <c r="U56" s="146"/>
-      <c r="V56" s="160"/>
-      <c r="W56" s="160"/>
-      <c r="X56" s="160"/>
-      <c r="Y56" s="160"/>
-      <c r="Z56" s="160"/>
-      <c r="AA56" s="160"/>
-      <c r="AB56" s="160"/>
-      <c r="AC56" s="160"/>
+      <c r="N56" s="149"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="156"/>
+      <c r="Q56" s="149"/>
+      <c r="R56" s="149"/>
+      <c r="S56" s="149"/>
+      <c r="T56" s="149"/>
+      <c r="U56" s="149"/>
+      <c r="V56" s="146"/>
+      <c r="W56" s="146"/>
+      <c r="X56" s="146"/>
+      <c r="Y56" s="146"/>
+      <c r="Z56" s="146"/>
+      <c r="AA56" s="146"/>
+      <c r="AB56" s="146"/>
+      <c r="AC56" s="146"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" s="83"/>
@@ -6654,22 +6654,22 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="146"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="151"/>
-      <c r="Q57" s="146"/>
-      <c r="R57" s="146"/>
-      <c r="S57" s="146"/>
-      <c r="T57" s="146"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="160"/>
-      <c r="W57" s="160"/>
-      <c r="X57" s="160"/>
-      <c r="Y57" s="160"/>
-      <c r="Z57" s="160"/>
-      <c r="AA57" s="160"/>
-      <c r="AB57" s="160"/>
-      <c r="AC57" s="160"/>
+      <c r="N57" s="149"/>
+      <c r="O57" s="156"/>
+      <c r="P57" s="156"/>
+      <c r="Q57" s="149"/>
+      <c r="R57" s="149"/>
+      <c r="S57" s="149"/>
+      <c r="T57" s="149"/>
+      <c r="U57" s="149"/>
+      <c r="V57" s="146"/>
+      <c r="W57" s="146"/>
+      <c r="X57" s="146"/>
+      <c r="Y57" s="146"/>
+      <c r="Z57" s="146"/>
+      <c r="AA57" s="146"/>
+      <c r="AB57" s="146"/>
+      <c r="AC57" s="146"/>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B58" s="68" t="s">
@@ -6700,22 +6700,22 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="146"/>
-      <c r="O58" s="151"/>
-      <c r="P58" s="151"/>
-      <c r="Q58" s="146"/>
-      <c r="R58" s="146"/>
-      <c r="S58" s="146"/>
-      <c r="T58" s="146"/>
-      <c r="U58" s="146"/>
-      <c r="V58" s="160"/>
-      <c r="W58" s="160"/>
-      <c r="X58" s="160"/>
-      <c r="Y58" s="160"/>
-      <c r="Z58" s="160"/>
-      <c r="AA58" s="160"/>
-      <c r="AB58" s="160"/>
-      <c r="AC58" s="160"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="156"/>
+      <c r="P58" s="156"/>
+      <c r="Q58" s="149"/>
+      <c r="R58" s="149"/>
+      <c r="S58" s="149"/>
+      <c r="T58" s="149"/>
+      <c r="U58" s="149"/>
+      <c r="V58" s="146"/>
+      <c r="W58" s="146"/>
+      <c r="X58" s="146"/>
+      <c r="Y58" s="146"/>
+      <c r="Z58" s="146"/>
+      <c r="AA58" s="146"/>
+      <c r="AB58" s="146"/>
+      <c r="AC58" s="146"/>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B59" s="83"/>
@@ -6738,22 +6738,22 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="146"/>
-      <c r="O59" s="151"/>
-      <c r="P59" s="151"/>
-      <c r="Q59" s="146"/>
-      <c r="R59" s="146"/>
-      <c r="S59" s="146"/>
-      <c r="T59" s="146"/>
-      <c r="U59" s="146"/>
-      <c r="V59" s="160"/>
-      <c r="W59" s="160"/>
-      <c r="X59" s="160"/>
-      <c r="Y59" s="160"/>
-      <c r="Z59" s="160"/>
-      <c r="AA59" s="160"/>
-      <c r="AB59" s="160"/>
-      <c r="AC59" s="160"/>
+      <c r="N59" s="149"/>
+      <c r="O59" s="156"/>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="149"/>
+      <c r="R59" s="149"/>
+      <c r="S59" s="149"/>
+      <c r="T59" s="149"/>
+      <c r="U59" s="149"/>
+      <c r="V59" s="146"/>
+      <c r="W59" s="146"/>
+      <c r="X59" s="146"/>
+      <c r="Y59" s="146"/>
+      <c r="Z59" s="146"/>
+      <c r="AA59" s="146"/>
+      <c r="AB59" s="146"/>
+      <c r="AC59" s="146"/>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" s="68" t="s">
@@ -6784,22 +6784,22 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="146"/>
-      <c r="O60" s="151"/>
-      <c r="P60" s="151"/>
-      <c r="Q60" s="146"/>
-      <c r="R60" s="146"/>
-      <c r="S60" s="146"/>
-      <c r="T60" s="146"/>
-      <c r="U60" s="146"/>
-      <c r="V60" s="160"/>
-      <c r="W60" s="160"/>
-      <c r="X60" s="160"/>
-      <c r="Y60" s="160"/>
-      <c r="Z60" s="160"/>
-      <c r="AA60" s="160"/>
-      <c r="AB60" s="160"/>
-      <c r="AC60" s="160"/>
+      <c r="N60" s="149"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
+      <c r="Q60" s="149"/>
+      <c r="R60" s="149"/>
+      <c r="S60" s="149"/>
+      <c r="T60" s="149"/>
+      <c r="U60" s="149"/>
+      <c r="V60" s="146"/>
+      <c r="W60" s="146"/>
+      <c r="X60" s="146"/>
+      <c r="Y60" s="146"/>
+      <c r="Z60" s="146"/>
+      <c r="AA60" s="146"/>
+      <c r="AB60" s="146"/>
+      <c r="AC60" s="146"/>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" s="68" t="s">
@@ -6830,22 +6830,22 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="147"/>
-      <c r="O61" s="152"/>
-      <c r="P61" s="152"/>
-      <c r="Q61" s="147"/>
-      <c r="R61" s="147"/>
-      <c r="S61" s="147"/>
-      <c r="T61" s="147"/>
-      <c r="U61" s="147"/>
-      <c r="V61" s="161"/>
-      <c r="W61" s="161"/>
-      <c r="X61" s="161"/>
-      <c r="Y61" s="161"/>
-      <c r="Z61" s="161"/>
-      <c r="AA61" s="161"/>
-      <c r="AB61" s="161"/>
-      <c r="AC61" s="161"/>
+      <c r="N61" s="150"/>
+      <c r="O61" s="157"/>
+      <c r="P61" s="157"/>
+      <c r="Q61" s="150"/>
+      <c r="R61" s="150"/>
+      <c r="S61" s="150"/>
+      <c r="T61" s="150"/>
+      <c r="U61" s="150"/>
+      <c r="V61" s="147"/>
+      <c r="W61" s="147"/>
+      <c r="X61" s="147"/>
+      <c r="Y61" s="147"/>
+      <c r="Z61" s="147"/>
+      <c r="AA61" s="147"/>
+      <c r="AB61" s="147"/>
+      <c r="AC61" s="147"/>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" s="83"/>
@@ -7789,24 +7789,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AA54:AA61"/>
-    <mergeCell ref="AB54:AB61"/>
-    <mergeCell ref="AC54:AC61"/>
-    <mergeCell ref="Y43:Y53"/>
-    <mergeCell ref="Z43:Z53"/>
-    <mergeCell ref="AA43:AA53"/>
-    <mergeCell ref="AB43:AB53"/>
-    <mergeCell ref="AC43:AC53"/>
-    <mergeCell ref="Z54:Z61"/>
-    <mergeCell ref="Y54:Y61"/>
-    <mergeCell ref="U43:U53"/>
-    <mergeCell ref="V43:V53"/>
-    <mergeCell ref="W43:W53"/>
-    <mergeCell ref="X43:X53"/>
-    <mergeCell ref="U54:U61"/>
-    <mergeCell ref="V54:V61"/>
-    <mergeCell ref="W54:W61"/>
-    <mergeCell ref="X54:X61"/>
+    <mergeCell ref="AC39:AC41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="W39:W41"/>
+    <mergeCell ref="X39:X41"/>
+    <mergeCell ref="Y39:Y41"/>
+    <mergeCell ref="Z39:Z41"/>
+    <mergeCell ref="AA39:AA41"/>
+    <mergeCell ref="AB39:AB41"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q54:Q61"/>
@@ -7823,23 +7822,24 @@
     <mergeCell ref="P54:P61"/>
     <mergeCell ref="O54:O61"/>
     <mergeCell ref="N54:N61"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="W39:W41"/>
-    <mergeCell ref="X39:X41"/>
-    <mergeCell ref="Y39:Y41"/>
-    <mergeCell ref="Z39:Z41"/>
-    <mergeCell ref="AA39:AA41"/>
-    <mergeCell ref="AB39:AB41"/>
-    <mergeCell ref="AC39:AC41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="U43:U53"/>
+    <mergeCell ref="V43:V53"/>
+    <mergeCell ref="W43:W53"/>
+    <mergeCell ref="X43:X53"/>
+    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="V54:V61"/>
+    <mergeCell ref="W54:W61"/>
+    <mergeCell ref="X54:X61"/>
+    <mergeCell ref="AA54:AA61"/>
+    <mergeCell ref="AB54:AB61"/>
+    <mergeCell ref="AC54:AC61"/>
+    <mergeCell ref="Y43:Y53"/>
+    <mergeCell ref="Z43:Z53"/>
+    <mergeCell ref="AA43:AA53"/>
+    <mergeCell ref="AB43:AB53"/>
+    <mergeCell ref="AC43:AC53"/>
+    <mergeCell ref="Z54:Z61"/>
+    <mergeCell ref="Y54:Y61"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7948,39 +7948,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157" t="s">
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="153" t="s">
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -8559,15 +8559,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8616,25 +8607,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8649,15 +8641,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8670,4 +8662,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_FIXA - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ATUACAO_FIXA - ATUALIZADO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="873" activeTab="3"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="873"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho do Mapa P1" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeamento P1 " sheetId="8" r:id="rId4"/>
     <sheet name="Desenho do Mapa P2" sheetId="19" r:id="rId5"/>
     <sheet name="Mapeamento P2" sheetId="18" r:id="rId6"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1172,8 +1172,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2012,170 +2012,170 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2199,7 +2199,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2229,7 +2229,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2296,7 +2296,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2344,7 +2344,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2367,14 +2367,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2417,7 +2417,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2440,14 +2440,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2461,98 +2461,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18433" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s18433"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19457" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s19457"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2642,7 +2550,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2677,7 +2584,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2853,15 +2759,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2870,13 +2776,13 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="114" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1">
+      <c r="C2" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="114"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="113"/>
+    </row>
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>139</v>
       </c>
@@ -2884,22 +2790,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="C5" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2910,132 +2816,132 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="118" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124" t="s">
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="125" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="114"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="113"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="109"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3066,7 +2972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3074,7 +2980,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="16" customWidth="1"/>
@@ -3083,7 +2989,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
         <v>154</v>
       </c>
@@ -3092,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>141</v>
       </c>
@@ -3101,7 +3007,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -3112,116 +3018,116 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="133" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="82" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="82" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="82" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="82" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="82" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="82" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-    </row>
-    <row r="14" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+    </row>
+    <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3232,20 +3138,20 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="134" t="s">
+    <row r="15" spans="2:10">
+      <c r="B15" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-    </row>
-    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+    </row>
+    <row r="16" spans="2:10" ht="23.25" customHeight="1">
       <c r="B16" s="47" t="s">
         <v>61</v>
       </c>
@@ -3255,18 +3161,18 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="143"/>
-      <c r="G16" s="141" t="s">
+      <c r="F16" s="142"/>
+      <c r="G16" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
         <v>156</v>
       </c>
@@ -3274,27 +3180,27 @@
       <c r="D17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="137" t="s">
+      <c r="E17" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="138"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="137"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-    </row>
-    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="136"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+    </row>
+    <row r="19" spans="2:10" ht="13.5" thickBot="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3305,14 +3211,14 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="134" t="s">
+    <row r="20" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B20" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="46" t="s">
         <v>62</v>
       </c>
@@ -3323,7 +3229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="25.5">
       <c r="B22" s="80" t="s">
         <v>134</v>
       </c>
@@ -3332,14 +3238,14 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="80" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3350,20 +3256,20 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="133" t="s">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B25" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="51" t="s">
         <v>67</v>
       </c>
@@ -3373,49 +3279,49 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136" t="s">
+      <c r="F26" s="135"/>
+      <c r="G26" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3454,17 +3360,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3472,53 +3378,28 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="18433" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="18433" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="18433" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Q33" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U38" sqref="U38"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3550,52 +3431,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="D1" s="79"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="151" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="158" t="s">
+      <c r="O2" s="152"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3679,7 +3560,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B4" s="68" t="s">
         <v>120</v>
       </c>
@@ -3741,7 +3622,7 @@
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="24">
       <c r="B5" s="68" t="s">
         <v>120</v>
       </c>
@@ -3803,7 +3684,7 @@
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B6" s="68" t="s">
         <v>120</v>
       </c>
@@ -3865,7 +3746,7 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B7" s="68" t="s">
         <v>120</v>
       </c>
@@ -3923,7 +3804,7 @@
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B8" s="68" t="s">
         <v>120</v>
       </c>
@@ -3981,7 +3862,7 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B9" s="68" t="s">
         <v>120</v>
       </c>
@@ -4043,7 +3924,7 @@
       <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B10" s="68" t="s">
         <v>120</v>
       </c>
@@ -4105,7 +3986,7 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B11" s="68" t="s">
         <v>120</v>
       </c>
@@ -4167,7 +4048,7 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
       <c r="D12" s="84"/>
@@ -4219,7 +4100,7 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B13" s="68" t="s">
         <v>120</v>
       </c>
@@ -4285,7 +4166,7 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
       <c r="D14" s="84"/>
@@ -4341,7 +4222,7 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
       <c r="D15" s="84"/>
@@ -4385,7 +4266,7 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29" s="3" customFormat="1">
       <c r="B16" s="68" t="s">
         <v>120</v>
       </c>
@@ -4447,7 +4328,7 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" s="3" customFormat="1">
       <c r="B17" s="68" t="s">
         <v>120</v>
       </c>
@@ -4509,7 +4390,7 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" s="3" customFormat="1">
       <c r="B18" s="68" t="s">
         <v>120</v>
       </c>
@@ -4571,7 +4452,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B19" s="68" t="s">
         <v>120</v>
       </c>
@@ -4633,7 +4514,7 @@
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29">
       <c r="B20" s="68" t="s">
         <v>120</v>
       </c>
@@ -4695,7 +4576,7 @@
       <c r="AB20" s="68"/>
       <c r="AC20" s="68"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="B21" s="68" t="s">
         <v>120</v>
       </c>
@@ -4757,7 +4638,7 @@
       <c r="AB21" s="68"/>
       <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29">
       <c r="B22" s="68" t="s">
         <v>120</v>
       </c>
@@ -4819,7 +4700,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" ht="24">
       <c r="B23" s="68" t="s">
         <v>120</v>
       </c>
@@ -4881,7 +4762,7 @@
       <c r="AB23" s="68"/>
       <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" ht="24">
       <c r="B24" s="68" t="s">
         <v>120</v>
       </c>
@@ -4943,7 +4824,7 @@
       <c r="AB24" s="68"/>
       <c r="AC24" s="68"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" ht="24">
       <c r="B25" s="68" t="s">
         <v>120</v>
       </c>
@@ -5005,7 +4886,7 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29">
       <c r="B26" s="68" t="s">
         <v>120</v>
       </c>
@@ -5067,7 +4948,7 @@
       <c r="AB26" s="68"/>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29">
       <c r="B27" s="68" t="s">
         <v>120</v>
       </c>
@@ -5129,7 +5010,7 @@
       <c r="AB27" s="68"/>
       <c r="AC27" s="68"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29">
       <c r="B28" s="68" t="s">
         <v>120</v>
       </c>
@@ -5191,7 +5072,7 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="68"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29">
       <c r="B29" s="68" t="s">
         <v>120</v>
       </c>
@@ -5253,7 +5134,7 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29">
       <c r="B30" s="68" t="s">
         <v>120</v>
       </c>
@@ -5315,7 +5196,7 @@
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29">
       <c r="B31" s="68" t="s">
         <v>120</v>
       </c>
@@ -5381,7 +5262,7 @@
       <c r="AB31" s="68"/>
       <c r="AC31" s="68"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29">
       <c r="B32" s="68" t="s">
         <v>120</v>
       </c>
@@ -5443,7 +5324,7 @@
       <c r="AB32" s="68"/>
       <c r="AC32" s="68"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29">
       <c r="B33" s="68" t="s">
         <v>120</v>
       </c>
@@ -5505,7 +5386,7 @@
       <c r="AB33" s="68"/>
       <c r="AC33" s="68"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34" s="68" t="s">
         <v>120</v>
       </c>
@@ -5567,7 +5448,7 @@
       <c r="AB34" s="68"/>
       <c r="AC34" s="68"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29">
       <c r="B35" s="68" t="s">
         <v>120</v>
       </c>
@@ -5629,7 +5510,7 @@
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29">
       <c r="B36" s="68" t="s">
         <v>120</v>
       </c>
@@ -5691,7 +5572,7 @@
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29">
       <c r="B37" s="86"/>
       <c r="C37" s="86"/>
       <c r="D37" s="84"/>
@@ -5743,7 +5624,7 @@
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" ht="24">
       <c r="B38" s="68" t="s">
         <v>120</v>
       </c>
@@ -5809,7 +5690,7 @@
       <c r="AB38" s="93"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29">
       <c r="B39" s="68" t="s">
         <v>120</v>
       </c>
@@ -5840,36 +5721,36 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="148" t="s">
+      <c r="N39" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="148" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="S39" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="T39" s="148" t="s">
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="147" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="S39" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="T39" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="148" t="s">
+      <c r="U39" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="V39" s="148"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="148"/>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="148"/>
-      <c r="AC39" s="148"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
+      <c r="X39" s="147"/>
+      <c r="Y39" s="147"/>
+      <c r="Z39" s="147"/>
+      <c r="AA39" s="147"/>
+      <c r="AB39" s="147"/>
+      <c r="AC39" s="147"/>
+    </row>
+    <row r="40" spans="2:29">
       <c r="B40" s="68" t="s">
         <v>120</v>
       </c>
@@ -5896,24 +5777,24 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="160"/>
-      <c r="O40" s="156"/>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="149"/>
-      <c r="R40" s="149"/>
-      <c r="S40" s="149"/>
-      <c r="T40" s="149"/>
-      <c r="U40" s="149"/>
-      <c r="V40" s="149"/>
-      <c r="W40" s="149"/>
-      <c r="X40" s="149"/>
-      <c r="Y40" s="149"/>
-      <c r="Z40" s="149"/>
-      <c r="AA40" s="149"/>
-      <c r="AB40" s="149"/>
-      <c r="AC40" s="149"/>
-    </row>
-    <row r="41" spans="2:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="159"/>
+      <c r="O40" s="155"/>
+      <c r="P40" s="155"/>
+      <c r="Q40" s="148"/>
+      <c r="R40" s="148"/>
+      <c r="S40" s="148"/>
+      <c r="T40" s="148"/>
+      <c r="U40" s="148"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="148"/>
+      <c r="X40" s="148"/>
+      <c r="Y40" s="148"/>
+      <c r="Z40" s="148"/>
+      <c r="AA40" s="148"/>
+      <c r="AB40" s="148"/>
+      <c r="AC40" s="148"/>
+    </row>
+    <row r="41" spans="2:29" ht="33.75" customHeight="1">
       <c r="B41" s="68" t="s">
         <v>120</v>
       </c>
@@ -5940,24 +5821,24 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="161"/>
-      <c r="O41" s="157"/>
-      <c r="P41" s="157"/>
-      <c r="Q41" s="150"/>
-      <c r="R41" s="150"/>
-      <c r="S41" s="150"/>
-      <c r="T41" s="150"/>
-      <c r="U41" s="150"/>
-      <c r="V41" s="150"/>
-      <c r="W41" s="150"/>
-      <c r="X41" s="150"/>
-      <c r="Y41" s="150"/>
-      <c r="Z41" s="150"/>
-      <c r="AA41" s="150"/>
-      <c r="AB41" s="150"/>
-      <c r="AC41" s="150"/>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N41" s="160"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="149"/>
+      <c r="R41" s="149"/>
+      <c r="S41" s="149"/>
+      <c r="T41" s="149"/>
+      <c r="U41" s="149"/>
+      <c r="V41" s="149"/>
+      <c r="W41" s="149"/>
+      <c r="X41" s="149"/>
+      <c r="Y41" s="149"/>
+      <c r="Z41" s="149"/>
+      <c r="AA41" s="149"/>
+      <c r="AB41" s="149"/>
+      <c r="AC41" s="149"/>
+    </row>
+    <row r="42" spans="2:29" ht="24">
       <c r="B42" s="83"/>
       <c r="C42" s="83"/>
       <c r="D42" s="88"/>
@@ -6001,7 +5882,7 @@
       <c r="AB42" s="68"/>
       <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29">
       <c r="B43" s="68" t="s">
         <v>120</v>
       </c>
@@ -6030,42 +5911,42 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="148" t="s">
+      <c r="N43" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="O43" s="155"/>
-      <c r="P43" s="155"/>
-      <c r="Q43" s="148" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="S43" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="T43" s="148" t="s">
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="147" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="S43" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="T43" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="148" t="s">
+      <c r="U43" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="V43" s="148"/>
-      <c r="W43" s="148"/>
-      <c r="X43" s="148"/>
-      <c r="Y43" s="148"/>
-      <c r="Z43" s="148"/>
-      <c r="AA43" s="148"/>
-      <c r="AB43" s="148"/>
-      <c r="AC43" s="148"/>
-    </row>
-    <row r="44" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+      <c r="V43" s="147"/>
+      <c r="W43" s="147"/>
+      <c r="X43" s="147"/>
+      <c r="Y43" s="147"/>
+      <c r="Z43" s="147"/>
+      <c r="AA43" s="147"/>
+      <c r="AB43" s="147"/>
+      <c r="AC43" s="147"/>
+    </row>
+    <row r="44" spans="2:29" ht="24">
       <c r="B44" s="83"/>
       <c r="C44" s="83"/>
       <c r="D44" s="83"/>
       <c r="E44" s="87"/>
       <c r="F44" s="87"/>
-      <c r="G44" s="107" t="s">
+      <c r="G44" s="161" t="s">
         <v>158</v>
       </c>
       <c r="H44" s="68"/>
@@ -6074,24 +5955,24 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="149"/>
-      <c r="O44" s="156"/>
-      <c r="P44" s="156"/>
-      <c r="Q44" s="149"/>
-      <c r="R44" s="149"/>
-      <c r="S44" s="149"/>
-      <c r="T44" s="149"/>
-      <c r="U44" s="149"/>
-      <c r="V44" s="149"/>
-      <c r="W44" s="149"/>
-      <c r="X44" s="149"/>
-      <c r="Y44" s="149"/>
-      <c r="Z44" s="149"/>
-      <c r="AA44" s="149"/>
-      <c r="AB44" s="149"/>
-      <c r="AC44" s="149"/>
-    </row>
-    <row r="45" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+      <c r="N44" s="148"/>
+      <c r="O44" s="155"/>
+      <c r="P44" s="155"/>
+      <c r="Q44" s="148"/>
+      <c r="R44" s="148"/>
+      <c r="S44" s="148"/>
+      <c r="T44" s="148"/>
+      <c r="U44" s="148"/>
+      <c r="V44" s="148"/>
+      <c r="W44" s="148"/>
+      <c r="X44" s="148"/>
+      <c r="Y44" s="148"/>
+      <c r="Z44" s="148"/>
+      <c r="AA44" s="148"/>
+      <c r="AB44" s="148"/>
+      <c r="AC44" s="148"/>
+    </row>
+    <row r="45" spans="2:29" ht="24">
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
       <c r="D45" s="83"/>
@@ -6106,24 +5987,24 @@
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="149"/>
-      <c r="O45" s="156"/>
-      <c r="P45" s="156"/>
-      <c r="Q45" s="149"/>
-      <c r="R45" s="149"/>
-      <c r="S45" s="149"/>
-      <c r="T45" s="149"/>
-      <c r="U45" s="149"/>
-      <c r="V45" s="149"/>
-      <c r="W45" s="149"/>
-      <c r="X45" s="149"/>
-      <c r="Y45" s="149"/>
-      <c r="Z45" s="149"/>
-      <c r="AA45" s="149"/>
-      <c r="AB45" s="149"/>
-      <c r="AC45" s="149"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N45" s="148"/>
+      <c r="O45" s="155"/>
+      <c r="P45" s="155"/>
+      <c r="Q45" s="148"/>
+      <c r="R45" s="148"/>
+      <c r="S45" s="148"/>
+      <c r="T45" s="148"/>
+      <c r="U45" s="148"/>
+      <c r="V45" s="148"/>
+      <c r="W45" s="148"/>
+      <c r="X45" s="148"/>
+      <c r="Y45" s="148"/>
+      <c r="Z45" s="148"/>
+      <c r="AA45" s="148"/>
+      <c r="AB45" s="148"/>
+      <c r="AC45" s="148"/>
+    </row>
+    <row r="46" spans="2:29">
       <c r="B46" s="68" t="s">
         <v>120</v>
       </c>
@@ -6152,24 +6033,24 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="156"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="149"/>
-      <c r="R46" s="149"/>
-      <c r="S46" s="149"/>
-      <c r="T46" s="149"/>
-      <c r="U46" s="149"/>
-      <c r="V46" s="149"/>
-      <c r="W46" s="149"/>
-      <c r="X46" s="149"/>
-      <c r="Y46" s="149"/>
-      <c r="Z46" s="149"/>
-      <c r="AA46" s="149"/>
-      <c r="AB46" s="149"/>
-      <c r="AC46" s="149"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N46" s="148"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="155"/>
+      <c r="Q46" s="148"/>
+      <c r="R46" s="148"/>
+      <c r="S46" s="148"/>
+      <c r="T46" s="148"/>
+      <c r="U46" s="148"/>
+      <c r="V46" s="148"/>
+      <c r="W46" s="148"/>
+      <c r="X46" s="148"/>
+      <c r="Y46" s="148"/>
+      <c r="Z46" s="148"/>
+      <c r="AA46" s="148"/>
+      <c r="AB46" s="148"/>
+      <c r="AC46" s="148"/>
+    </row>
+    <row r="47" spans="2:29">
       <c r="B47" s="68" t="s">
         <v>120</v>
       </c>
@@ -6198,24 +6079,24 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="156"/>
-      <c r="P47" s="156"/>
-      <c r="Q47" s="149"/>
-      <c r="R47" s="149"/>
-      <c r="S47" s="149"/>
-      <c r="T47" s="149"/>
-      <c r="U47" s="149"/>
-      <c r="V47" s="149"/>
-      <c r="W47" s="149"/>
-      <c r="X47" s="149"/>
-      <c r="Y47" s="149"/>
-      <c r="Z47" s="149"/>
-      <c r="AA47" s="149"/>
-      <c r="AB47" s="149"/>
-      <c r="AC47" s="149"/>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N47" s="148"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="155"/>
+      <c r="Q47" s="148"/>
+      <c r="R47" s="148"/>
+      <c r="S47" s="148"/>
+      <c r="T47" s="148"/>
+      <c r="U47" s="148"/>
+      <c r="V47" s="148"/>
+      <c r="W47" s="148"/>
+      <c r="X47" s="148"/>
+      <c r="Y47" s="148"/>
+      <c r="Z47" s="148"/>
+      <c r="AA47" s="148"/>
+      <c r="AB47" s="148"/>
+      <c r="AC47" s="148"/>
+    </row>
+    <row r="48" spans="2:29">
       <c r="B48" s="83"/>
       <c r="C48" s="83"/>
       <c r="D48" s="83"/>
@@ -6236,24 +6117,24 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="149"/>
-      <c r="O48" s="156"/>
-      <c r="P48" s="156"/>
-      <c r="Q48" s="149"/>
-      <c r="R48" s="149"/>
-      <c r="S48" s="149"/>
-      <c r="T48" s="149"/>
-      <c r="U48" s="149"/>
-      <c r="V48" s="149"/>
-      <c r="W48" s="149"/>
-      <c r="X48" s="149"/>
-      <c r="Y48" s="149"/>
-      <c r="Z48" s="149"/>
-      <c r="AA48" s="149"/>
-      <c r="AB48" s="149"/>
-      <c r="AC48" s="149"/>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N48" s="148"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="148"/>
+      <c r="R48" s="148"/>
+      <c r="S48" s="148"/>
+      <c r="T48" s="148"/>
+      <c r="U48" s="148"/>
+      <c r="V48" s="148"/>
+      <c r="W48" s="148"/>
+      <c r="X48" s="148"/>
+      <c r="Y48" s="148"/>
+      <c r="Z48" s="148"/>
+      <c r="AA48" s="148"/>
+      <c r="AB48" s="148"/>
+      <c r="AC48" s="148"/>
+    </row>
+    <row r="49" spans="2:29">
       <c r="B49" s="68" t="s">
         <v>120</v>
       </c>
@@ -6282,24 +6163,24 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="156"/>
-      <c r="P49" s="156"/>
-      <c r="Q49" s="149"/>
-      <c r="R49" s="149"/>
-      <c r="S49" s="149"/>
-      <c r="T49" s="149"/>
-      <c r="U49" s="149"/>
-      <c r="V49" s="149"/>
-      <c r="W49" s="149"/>
-      <c r="X49" s="149"/>
-      <c r="Y49" s="149"/>
-      <c r="Z49" s="149"/>
-      <c r="AA49" s="149"/>
-      <c r="AB49" s="149"/>
-      <c r="AC49" s="149"/>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N49" s="148"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="148"/>
+      <c r="R49" s="148"/>
+      <c r="S49" s="148"/>
+      <c r="T49" s="148"/>
+      <c r="U49" s="148"/>
+      <c r="V49" s="148"/>
+      <c r="W49" s="148"/>
+      <c r="X49" s="148"/>
+      <c r="Y49" s="148"/>
+      <c r="Z49" s="148"/>
+      <c r="AA49" s="148"/>
+      <c r="AB49" s="148"/>
+      <c r="AC49" s="148"/>
+    </row>
+    <row r="50" spans="2:29">
       <c r="B50" s="68" t="s">
         <v>120</v>
       </c>
@@ -6328,24 +6209,24 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="149"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="149"/>
-      <c r="R50" s="149"/>
-      <c r="S50" s="149"/>
-      <c r="T50" s="149"/>
-      <c r="U50" s="149"/>
-      <c r="V50" s="149"/>
-      <c r="W50" s="149"/>
-      <c r="X50" s="149"/>
-      <c r="Y50" s="149"/>
-      <c r="Z50" s="149"/>
-      <c r="AA50" s="149"/>
-      <c r="AB50" s="149"/>
-      <c r="AC50" s="149"/>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N50" s="148"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="155"/>
+      <c r="Q50" s="148"/>
+      <c r="R50" s="148"/>
+      <c r="S50" s="148"/>
+      <c r="T50" s="148"/>
+      <c r="U50" s="148"/>
+      <c r="V50" s="148"/>
+      <c r="W50" s="148"/>
+      <c r="X50" s="148"/>
+      <c r="Y50" s="148"/>
+      <c r="Z50" s="148"/>
+      <c r="AA50" s="148"/>
+      <c r="AB50" s="148"/>
+      <c r="AC50" s="148"/>
+    </row>
+    <row r="51" spans="2:29">
       <c r="B51" s="68" t="s">
         <v>120</v>
       </c>
@@ -6374,24 +6255,24 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="149"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="156"/>
-      <c r="Q51" s="149"/>
-      <c r="R51" s="149"/>
-      <c r="S51" s="149"/>
-      <c r="T51" s="149"/>
-      <c r="U51" s="149"/>
-      <c r="V51" s="149"/>
-      <c r="W51" s="149"/>
-      <c r="X51" s="149"/>
-      <c r="Y51" s="149"/>
-      <c r="Z51" s="149"/>
-      <c r="AA51" s="149"/>
-      <c r="AB51" s="149"/>
-      <c r="AC51" s="149"/>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N51" s="148"/>
+      <c r="O51" s="155"/>
+      <c r="P51" s="155"/>
+      <c r="Q51" s="148"/>
+      <c r="R51" s="148"/>
+      <c r="S51" s="148"/>
+      <c r="T51" s="148"/>
+      <c r="U51" s="148"/>
+      <c r="V51" s="148"/>
+      <c r="W51" s="148"/>
+      <c r="X51" s="148"/>
+      <c r="Y51" s="148"/>
+      <c r="Z51" s="148"/>
+      <c r="AA51" s="148"/>
+      <c r="AB51" s="148"/>
+      <c r="AC51" s="148"/>
+    </row>
+    <row r="52" spans="2:29">
       <c r="B52" s="68" t="s">
         <v>120</v>
       </c>
@@ -6420,24 +6301,24 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="149"/>
-      <c r="O52" s="156"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="149"/>
-      <c r="R52" s="149"/>
-      <c r="S52" s="149"/>
-      <c r="T52" s="149"/>
-      <c r="U52" s="149"/>
-      <c r="V52" s="149"/>
-      <c r="W52" s="149"/>
-      <c r="X52" s="149"/>
-      <c r="Y52" s="149"/>
-      <c r="Z52" s="149"/>
-      <c r="AA52" s="149"/>
-      <c r="AB52" s="149"/>
-      <c r="AC52" s="149"/>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N52" s="148"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="155"/>
+      <c r="Q52" s="148"/>
+      <c r="R52" s="148"/>
+      <c r="S52" s="148"/>
+      <c r="T52" s="148"/>
+      <c r="U52" s="148"/>
+      <c r="V52" s="148"/>
+      <c r="W52" s="148"/>
+      <c r="X52" s="148"/>
+      <c r="Y52" s="148"/>
+      <c r="Z52" s="148"/>
+      <c r="AA52" s="148"/>
+      <c r="AB52" s="148"/>
+      <c r="AC52" s="148"/>
+    </row>
+    <row r="53" spans="2:29">
       <c r="B53" s="68" t="s">
         <v>120</v>
       </c>
@@ -6466,24 +6347,24 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="150"/>
-      <c r="O53" s="157"/>
-      <c r="P53" s="157"/>
-      <c r="Q53" s="150"/>
-      <c r="R53" s="150"/>
-      <c r="S53" s="150"/>
-      <c r="T53" s="150"/>
-      <c r="U53" s="150"/>
-      <c r="V53" s="150"/>
-      <c r="W53" s="150"/>
-      <c r="X53" s="150"/>
-      <c r="Y53" s="150"/>
-      <c r="Z53" s="150"/>
-      <c r="AA53" s="150"/>
-      <c r="AB53" s="150"/>
-      <c r="AC53" s="150"/>
-    </row>
-    <row r="54" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="149"/>
+      <c r="O53" s="156"/>
+      <c r="P53" s="156"/>
+      <c r="Q53" s="149"/>
+      <c r="R53" s="149"/>
+      <c r="S53" s="149"/>
+      <c r="T53" s="149"/>
+      <c r="U53" s="149"/>
+      <c r="V53" s="149"/>
+      <c r="W53" s="149"/>
+      <c r="X53" s="149"/>
+      <c r="Y53" s="149"/>
+      <c r="Z53" s="149"/>
+      <c r="AA53" s="149"/>
+      <c r="AB53" s="149"/>
+      <c r="AC53" s="149"/>
+    </row>
+    <row r="54" spans="2:29" ht="12.75" customHeight="1">
       <c r="B54" s="68" t="s">
         <v>120</v>
       </c>
@@ -6512,36 +6393,36 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="148" t="s">
+      <c r="N54" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="O54" s="155"/>
-      <c r="P54" s="155"/>
-      <c r="Q54" s="148" t="s">
-        <v>121</v>
-      </c>
-      <c r="R54" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="S54" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="T54" s="148" t="s">
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="147" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="S54" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="T54" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="U54" s="148" t="s">
+      <c r="U54" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="V54" s="145"/>
-      <c r="W54" s="145"/>
-      <c r="X54" s="145"/>
-      <c r="Y54" s="145"/>
-      <c r="Z54" s="145"/>
-      <c r="AA54" s="145"/>
-      <c r="AB54" s="145"/>
-      <c r="AC54" s="145"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="V54" s="144"/>
+      <c r="W54" s="144"/>
+      <c r="X54" s="144"/>
+      <c r="Y54" s="144"/>
+      <c r="Z54" s="144"/>
+      <c r="AA54" s="144"/>
+      <c r="AB54" s="144"/>
+      <c r="AC54" s="144"/>
+    </row>
+    <row r="55" spans="2:29">
       <c r="B55" s="68" t="s">
         <v>120</v>
       </c>
@@ -6570,24 +6451,24 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="149"/>
-      <c r="O55" s="156"/>
-      <c r="P55" s="156"/>
-      <c r="Q55" s="149"/>
-      <c r="R55" s="149"/>
-      <c r="S55" s="149"/>
-      <c r="T55" s="149"/>
-      <c r="U55" s="149"/>
-      <c r="V55" s="146"/>
-      <c r="W55" s="146"/>
-      <c r="X55" s="146"/>
-      <c r="Y55" s="146"/>
-      <c r="Z55" s="146"/>
-      <c r="AA55" s="146"/>
-      <c r="AB55" s="146"/>
-      <c r="AC55" s="146"/>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N55" s="148"/>
+      <c r="O55" s="155"/>
+      <c r="P55" s="155"/>
+      <c r="Q55" s="148"/>
+      <c r="R55" s="148"/>
+      <c r="S55" s="148"/>
+      <c r="T55" s="148"/>
+      <c r="U55" s="148"/>
+      <c r="V55" s="145"/>
+      <c r="W55" s="145"/>
+      <c r="X55" s="145"/>
+      <c r="Y55" s="145"/>
+      <c r="Z55" s="145"/>
+      <c r="AA55" s="145"/>
+      <c r="AB55" s="145"/>
+      <c r="AC55" s="145"/>
+    </row>
+    <row r="56" spans="2:29">
       <c r="B56" s="68" t="s">
         <v>120</v>
       </c>
@@ -6616,24 +6497,24 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="149"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="149"/>
-      <c r="R56" s="149"/>
-      <c r="S56" s="149"/>
-      <c r="T56" s="149"/>
-      <c r="U56" s="149"/>
-      <c r="V56" s="146"/>
-      <c r="W56" s="146"/>
-      <c r="X56" s="146"/>
-      <c r="Y56" s="146"/>
-      <c r="Z56" s="146"/>
-      <c r="AA56" s="146"/>
-      <c r="AB56" s="146"/>
-      <c r="AC56" s="146"/>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N56" s="148"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="148"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="148"/>
+      <c r="T56" s="148"/>
+      <c r="U56" s="148"/>
+      <c r="V56" s="145"/>
+      <c r="W56" s="145"/>
+      <c r="X56" s="145"/>
+      <c r="Y56" s="145"/>
+      <c r="Z56" s="145"/>
+      <c r="AA56" s="145"/>
+      <c r="AB56" s="145"/>
+      <c r="AC56" s="145"/>
+    </row>
+    <row r="57" spans="2:29">
       <c r="B57" s="83"/>
       <c r="C57" s="83"/>
       <c r="D57" s="83"/>
@@ -6654,24 +6535,24 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="149"/>
-      <c r="O57" s="156"/>
-      <c r="P57" s="156"/>
-      <c r="Q57" s="149"/>
-      <c r="R57" s="149"/>
-      <c r="S57" s="149"/>
-      <c r="T57" s="149"/>
-      <c r="U57" s="149"/>
-      <c r="V57" s="146"/>
-      <c r="W57" s="146"/>
-      <c r="X57" s="146"/>
-      <c r="Y57" s="146"/>
-      <c r="Z57" s="146"/>
-      <c r="AA57" s="146"/>
-      <c r="AB57" s="146"/>
-      <c r="AC57" s="146"/>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N57" s="148"/>
+      <c r="O57" s="155"/>
+      <c r="P57" s="155"/>
+      <c r="Q57" s="148"/>
+      <c r="R57" s="148"/>
+      <c r="S57" s="148"/>
+      <c r="T57" s="148"/>
+      <c r="U57" s="148"/>
+      <c r="V57" s="145"/>
+      <c r="W57" s="145"/>
+      <c r="X57" s="145"/>
+      <c r="Y57" s="145"/>
+      <c r="Z57" s="145"/>
+      <c r="AA57" s="145"/>
+      <c r="AB57" s="145"/>
+      <c r="AC57" s="145"/>
+    </row>
+    <row r="58" spans="2:29">
       <c r="B58" s="68" t="s">
         <v>120</v>
       </c>
@@ -6700,24 +6581,24 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="149"/>
-      <c r="O58" s="156"/>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="149"/>
-      <c r="R58" s="149"/>
-      <c r="S58" s="149"/>
-      <c r="T58" s="149"/>
-      <c r="U58" s="149"/>
-      <c r="V58" s="146"/>
-      <c r="W58" s="146"/>
-      <c r="X58" s="146"/>
-      <c r="Y58" s="146"/>
-      <c r="Z58" s="146"/>
-      <c r="AA58" s="146"/>
-      <c r="AB58" s="146"/>
-      <c r="AC58" s="146"/>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N58" s="148"/>
+      <c r="O58" s="155"/>
+      <c r="P58" s="155"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="148"/>
+      <c r="S58" s="148"/>
+      <c r="T58" s="148"/>
+      <c r="U58" s="148"/>
+      <c r="V58" s="145"/>
+      <c r="W58" s="145"/>
+      <c r="X58" s="145"/>
+      <c r="Y58" s="145"/>
+      <c r="Z58" s="145"/>
+      <c r="AA58" s="145"/>
+      <c r="AB58" s="145"/>
+      <c r="AC58" s="145"/>
+    </row>
+    <row r="59" spans="2:29">
       <c r="B59" s="83"/>
       <c r="C59" s="83"/>
       <c r="D59" s="83"/>
@@ -6738,24 +6619,24 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="149"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="149"/>
-      <c r="R59" s="149"/>
-      <c r="S59" s="149"/>
-      <c r="T59" s="149"/>
-      <c r="U59" s="149"/>
-      <c r="V59" s="146"/>
-      <c r="W59" s="146"/>
-      <c r="X59" s="146"/>
-      <c r="Y59" s="146"/>
-      <c r="Z59" s="146"/>
-      <c r="AA59" s="146"/>
-      <c r="AB59" s="146"/>
-      <c r="AC59" s="146"/>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N59" s="148"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="155"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="148"/>
+      <c r="S59" s="148"/>
+      <c r="T59" s="148"/>
+      <c r="U59" s="148"/>
+      <c r="V59" s="145"/>
+      <c r="W59" s="145"/>
+      <c r="X59" s="145"/>
+      <c r="Y59" s="145"/>
+      <c r="Z59" s="145"/>
+      <c r="AA59" s="145"/>
+      <c r="AB59" s="145"/>
+      <c r="AC59" s="145"/>
+    </row>
+    <row r="60" spans="2:29">
       <c r="B60" s="68" t="s">
         <v>120</v>
       </c>
@@ -6784,24 +6665,24 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="149"/>
-      <c r="O60" s="156"/>
-      <c r="P60" s="156"/>
-      <c r="Q60" s="149"/>
-      <c r="R60" s="149"/>
-      <c r="S60" s="149"/>
-      <c r="T60" s="149"/>
-      <c r="U60" s="149"/>
-      <c r="V60" s="146"/>
-      <c r="W60" s="146"/>
-      <c r="X60" s="146"/>
-      <c r="Y60" s="146"/>
-      <c r="Z60" s="146"/>
-      <c r="AA60" s="146"/>
-      <c r="AB60" s="146"/>
-      <c r="AC60" s="146"/>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N60" s="148"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="155"/>
+      <c r="Q60" s="148"/>
+      <c r="R60" s="148"/>
+      <c r="S60" s="148"/>
+      <c r="T60" s="148"/>
+      <c r="U60" s="148"/>
+      <c r="V60" s="145"/>
+      <c r="W60" s="145"/>
+      <c r="X60" s="145"/>
+      <c r="Y60" s="145"/>
+      <c r="Z60" s="145"/>
+      <c r="AA60" s="145"/>
+      <c r="AB60" s="145"/>
+      <c r="AC60" s="145"/>
+    </row>
+    <row r="61" spans="2:29">
       <c r="B61" s="68" t="s">
         <v>120</v>
       </c>
@@ -6830,24 +6711,24 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="150"/>
-      <c r="O61" s="157"/>
-      <c r="P61" s="157"/>
-      <c r="Q61" s="150"/>
-      <c r="R61" s="150"/>
-      <c r="S61" s="150"/>
-      <c r="T61" s="150"/>
-      <c r="U61" s="150"/>
-      <c r="V61" s="147"/>
-      <c r="W61" s="147"/>
-      <c r="X61" s="147"/>
-      <c r="Y61" s="147"/>
-      <c r="Z61" s="147"/>
-      <c r="AA61" s="147"/>
-      <c r="AB61" s="147"/>
-      <c r="AC61" s="147"/>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N61" s="149"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="149"/>
+      <c r="R61" s="149"/>
+      <c r="S61" s="149"/>
+      <c r="T61" s="149"/>
+      <c r="U61" s="149"/>
+      <c r="V61" s="146"/>
+      <c r="W61" s="146"/>
+      <c r="X61" s="146"/>
+      <c r="Y61" s="146"/>
+      <c r="Z61" s="146"/>
+      <c r="AA61" s="146"/>
+      <c r="AB61" s="146"/>
+      <c r="AC61" s="146"/>
+    </row>
+    <row r="62" spans="2:29">
       <c r="B62" s="83"/>
       <c r="C62" s="83"/>
       <c r="D62" s="83"/>
@@ -6897,7 +6778,7 @@
       <c r="AB62" s="68"/>
       <c r="AC62" s="68"/>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29">
       <c r="B63" s="83"/>
       <c r="C63" s="83"/>
       <c r="D63" s="83"/>
@@ -6947,7 +6828,7 @@
       <c r="AB63" s="68"/>
       <c r="AC63" s="68"/>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29">
       <c r="B64" s="83"/>
       <c r="C64" s="83"/>
       <c r="D64" s="83"/>
@@ -6995,7 +6876,7 @@
       <c r="AB64" s="96"/>
       <c r="AC64" s="96"/>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:23">
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="60"/>
@@ -7019,7 +6900,7 @@
       <c r="V65" s="59"/>
       <c r="W65" s="59"/>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:23">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="60"/>
@@ -7043,7 +6924,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="59"/>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23">
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="60"/>
@@ -7067,7 +6948,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="59"/>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:23">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
@@ -7091,7 +6972,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="59"/>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:23">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
@@ -7115,7 +6996,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="59"/>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:23">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -7139,7 +7020,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="59"/>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
@@ -7163,7 +7044,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="59"/>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:23">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
@@ -7187,7 +7068,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="59"/>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
@@ -7211,7 +7092,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="59"/>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:23">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="60"/>
@@ -7235,7 +7116,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="59"/>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:23">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
@@ -7259,7 +7140,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="59"/>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:23">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -7283,7 +7164,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="59"/>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="60"/>
@@ -7307,7 +7188,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="59"/>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:23">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="60"/>
@@ -7331,7 +7212,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="59"/>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:23">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="60"/>
@@ -7355,7 +7236,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="59"/>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="60"/>
@@ -7379,7 +7260,7 @@
       <c r="V80" s="59"/>
       <c r="W80" s="59"/>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:23">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="60"/>
@@ -7403,7 +7284,7 @@
       <c r="V81" s="59"/>
       <c r="W81" s="59"/>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:23">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
@@ -7427,7 +7308,7 @@
       <c r="V82" s="59"/>
       <c r="W82" s="59"/>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:23">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="60"/>
@@ -7451,7 +7332,7 @@
       <c r="V83" s="59"/>
       <c r="W83" s="59"/>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:23">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="60"/>
@@ -7475,7 +7356,7 @@
       <c r="V84" s="59"/>
       <c r="W84" s="59"/>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:23">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="60"/>
@@ -7499,7 +7380,7 @@
       <c r="V85" s="59"/>
       <c r="W85" s="59"/>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:23">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="60"/>
@@ -7523,7 +7404,7 @@
       <c r="V86" s="59"/>
       <c r="W86" s="59"/>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:23">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="60"/>
@@ -7547,7 +7428,7 @@
       <c r="V87" s="59"/>
       <c r="W87" s="59"/>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:23">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="60"/>
@@ -7571,7 +7452,7 @@
       <c r="V88" s="59"/>
       <c r="W88" s="59"/>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:23">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="60"/>
@@ -7595,7 +7476,7 @@
       <c r="V89" s="59"/>
       <c r="W89" s="59"/>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:23">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="60"/>
@@ -7619,7 +7500,7 @@
       <c r="V90" s="59"/>
       <c r="W90" s="59"/>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:23">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="60"/>
@@ -7643,7 +7524,7 @@
       <c r="V91" s="59"/>
       <c r="W91" s="59"/>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:23">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="60"/>
@@ -7667,7 +7548,7 @@
       <c r="V92" s="59"/>
       <c r="W92" s="59"/>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:23">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="60"/>
@@ -7691,7 +7572,7 @@
       <c r="V93" s="59"/>
       <c r="W93" s="59"/>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:23">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="60"/>
@@ -7715,7 +7596,7 @@
       <c r="V94" s="59"/>
       <c r="W94" s="59"/>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:23">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="60"/>
@@ -7739,7 +7620,7 @@
       <c r="V95" s="59"/>
       <c r="W95" s="59"/>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:23">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="60"/>
@@ -7763,7 +7644,7 @@
       <c r="V96" s="59"/>
       <c r="W96" s="59"/>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:23">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="60"/>
@@ -7849,51 +7730,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId2"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7906,7 +7762,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7940,52 +7796,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="D1" s="79"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="151" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="158" t="s">
+      <c r="O2" s="152"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -8069,7 +7925,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" ht="72" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" ht="72">
       <c r="B4" s="72" t="s">
         <v>120</v>
       </c>
@@ -8131,7 +7987,7 @@
       <c r="AB4" s="96"/>
       <c r="AC4" s="96"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29">
       <c r="B5" s="101"/>
       <c r="C5" s="101"/>
       <c r="D5" s="103"/>
@@ -8177,7 +8033,7 @@
       <c r="AB5" s="96"/>
       <c r="AC5" s="96"/>
     </row>
-    <row r="6" spans="2:29" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" ht="96">
       <c r="B6" s="72" t="s">
         <v>120</v>
       </c>
@@ -8239,7 +8095,7 @@
       <c r="AB6" s="96"/>
       <c r="AC6" s="96"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29">
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="60"/>
@@ -8263,7 +8119,7 @@
       <c r="V7" s="59"/>
       <c r="W7" s="59"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29">
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
@@ -8301,7 +8157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8309,7 +8165,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -8317,7 +8173,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -8337,7 +8193,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -8357,7 +8213,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -8382,7 +8238,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -8404,7 +8260,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -8412,7 +8268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -8420,7 +8276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -8428,7 +8284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -8436,7 +8292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -8444,7 +8300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -8452,7 +8308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -8460,7 +8316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -8468,7 +8324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -8476,7 +8332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -8484,7 +8340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -8492,7 +8348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -8500,7 +8356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -8508,7 +8364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -8516,7 +8372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -8524,7 +8380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -8532,7 +8388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -8540,7 +8396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
